--- a/summary/als/deviations.xlsx
+++ b/summary/als/deviations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>WELL</t>
   </si>
@@ -139,6 +139,12 @@
     <t>ACAK-180</t>
   </si>
   <si>
+    <t>ACAL-139</t>
+  </si>
+  <si>
+    <t>ACAL-251H</t>
+  </si>
+  <si>
     <t>ACAO-156</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>ACAR-268</t>
   </si>
   <si>
+    <t>ACAR-269H</t>
+  </si>
+  <si>
     <t>ACSA-007</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>CNO-004</t>
   </si>
   <si>
+    <t>CNOE-030</t>
+  </si>
+  <si>
     <t>CNOI-041</t>
   </si>
   <si>
@@ -215,6 +227,9 @@
   </si>
   <si>
     <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
   <si>
     <t>Jan</t>
@@ -581,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +714,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -708,7 +723,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>26603.62</v>
@@ -812,7 +827,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -821,7 +836,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>16058</v>
@@ -925,7 +940,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -934,7 +949,7 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>19408.1</v>
@@ -1038,7 +1053,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1047,7 +1062,7 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>18205.06</v>
@@ -1151,7 +1166,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1160,7 +1175,7 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>13645.06</v>
@@ -1264,7 +1279,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1273,19 +1288,19 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="F7">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="G7">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1297,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="M7">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="N7">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1321,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="U7">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="V7">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1345,22 +1360,22 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD7">
-        <v>-2617.970000000001</v>
+        <v>-18322.90000000001</v>
       </c>
       <c r="AE7">
-        <v>11955.57549999998</v>
+        <v>44620.40120000005</v>
       </c>
       <c r="AF7">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1377,7 +1392,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1386,19 +1401,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>21182.46</v>
+        <v>44610.66</v>
       </c>
       <c r="F8">
-        <v>516832.16</v>
+        <v>358194.8644</v>
       </c>
       <c r="G8">
-        <v>41714.5254</v>
+        <v>49129.3974</v>
       </c>
       <c r="H8">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1407,22 +1422,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5293.4</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="N8">
-        <v>455228.52</v>
+        <v>340968.83</v>
       </c>
       <c r="O8">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1431,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="T8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="V8">
-        <v>455228.52</v>
+        <v>340968.83</v>
       </c>
       <c r="W8">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1455,25 +1470,25 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="AB8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD8">
-        <v>-8324.240000000002</v>
+        <v>20203.95</v>
       </c>
       <c r="AE8">
-        <v>61603.64000000001</v>
+        <v>17226.03439999995</v>
       </c>
       <c r="AF8">
-        <v>39533.4654</v>
+        <v>43967.1774</v>
       </c>
       <c r="AG8">
-        <v>36735.2234</v>
+        <v>3087.645700000001</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1482,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-59608.69</v>
+        <v>-46630.05740000001</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1490,7 +1505,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1499,19 +1514,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E9">
-        <v>25142.02</v>
+        <v>35264.5</v>
       </c>
       <c r="F9">
-        <v>277188.6893</v>
+        <v>290894.2855</v>
       </c>
       <c r="G9">
-        <v>24698.2346</v>
+        <v>25630.2434</v>
       </c>
       <c r="H9">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1523,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>173339.58</v>
+        <v>41846.3631</v>
       </c>
       <c r="M9">
-        <v>28089.2</v>
+        <v>37882.47</v>
       </c>
       <c r="N9">
-        <v>160763.94</v>
+        <v>278938.71</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1547,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>173339.58</v>
+        <v>41846.3631</v>
       </c>
       <c r="U9">
-        <v>28089.2</v>
+        <v>37882.47</v>
       </c>
       <c r="V9">
-        <v>160763.94</v>
+        <v>278938.71</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1571,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>173339.58</v>
+        <v>41846.3631</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>-2947.179999999997</v>
+        <v>-2617.970000000001</v>
       </c>
       <c r="AE9">
-        <v>116424.7493</v>
+        <v>11955.57549999998</v>
       </c>
       <c r="AF9">
-        <v>24698.2346</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG9">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1603,7 +1618,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
@@ -1612,19 +1627,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>26099.62</v>
+        <v>21182.46</v>
       </c>
       <c r="F10">
-        <v>278579.4218</v>
+        <v>516832.16</v>
       </c>
       <c r="G10">
-        <v>26251.5827</v>
+        <v>41714.5254</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1633,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L10">
-        <v>29992.31</v>
+        <v>199012.794</v>
       </c>
       <c r="M10">
-        <v>24651.29</v>
+        <v>29506.7</v>
       </c>
       <c r="N10">
-        <v>267851.66</v>
+        <v>455228.52</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1657,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="T10">
-        <v>29992.31</v>
+        <v>199012.794</v>
       </c>
       <c r="U10">
-        <v>24651.29</v>
+        <v>29506.7</v>
       </c>
       <c r="V10">
-        <v>267851.66</v>
+        <v>455228.52</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1681,25 +1696,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="AB10">
-        <v>29992.31</v>
+        <v>199012.794</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>1448.329999999998</v>
+        <v>-8324.240000000002</v>
       </c>
       <c r="AE10">
-        <v>10727.76179999998</v>
+        <v>61603.64000000001</v>
       </c>
       <c r="AF10">
-        <v>26251.5827</v>
+        <v>39533.4654</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1708,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>-59608.69</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1716,28 +1731,28 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11">
-        <v>27006.82</v>
+        <v>18397.06</v>
       </c>
       <c r="F11">
-        <v>264147.2883</v>
+        <v>326646.9343</v>
       </c>
       <c r="G11">
-        <v>27649.596</v>
+        <v>24329.9319</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1749,16 +1764,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>64312.56099999999</v>
+        <v>36863.1</v>
       </c>
       <c r="M11">
-        <v>33999.38</v>
+        <v>36093.04</v>
       </c>
       <c r="N11">
-        <v>278850.94</v>
+        <v>324824.84</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1773,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>64312.56099999999</v>
+        <v>36863.1</v>
       </c>
       <c r="U11">
-        <v>33999.38</v>
+        <v>36093.04</v>
       </c>
       <c r="V11">
-        <v>278850.94</v>
+        <v>324824.84</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1797,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>64312.56099999999</v>
+        <v>36863.1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD11">
-        <v>-6992.559999999998</v>
+        <v>-17695.98</v>
       </c>
       <c r="AE11">
-        <v>-14703.65169999999</v>
+        <v>1822.094299999939</v>
       </c>
       <c r="AF11">
-        <v>27649.596</v>
+        <v>16908.8819</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1829,28 +1844,28 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>26563.62</v>
+        <v>25142.02</v>
       </c>
       <c r="F12">
-        <v>283269.233</v>
+        <v>277188.6893</v>
       </c>
       <c r="G12">
-        <v>25785.5783</v>
+        <v>24698.2346</v>
       </c>
       <c r="H12">
-        <v>36919.8225</v>
+        <v>35406.1098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1862,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18450</v>
+        <v>173339.58</v>
       </c>
       <c r="M12">
-        <v>32674.29</v>
+        <v>28089.2</v>
       </c>
       <c r="N12">
-        <v>290087.79</v>
+        <v>160763.94</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1886,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>18450</v>
+        <v>173339.58</v>
       </c>
       <c r="U12">
-        <v>32674.29</v>
+        <v>28089.2</v>
       </c>
       <c r="V12">
-        <v>290087.79</v>
+        <v>160763.94</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1910,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>18450</v>
+        <v>173339.58</v>
       </c>
       <c r="AC12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>-6110.670000000002</v>
+        <v>-2947.179999999997</v>
       </c>
       <c r="AE12">
-        <v>-6818.55700000003</v>
+        <v>116424.7493</v>
       </c>
       <c r="AF12">
-        <v>25785.5783</v>
+        <v>24698.2346</v>
       </c>
       <c r="AG12">
-        <v>20222.5725</v>
+        <v>35406.1098</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1942,28 +1957,28 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>18812.78</v>
+        <v>15006.48</v>
       </c>
       <c r="F13">
-        <v>591541.1514</v>
+        <v>324866.7652</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>38730.0079</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1972,108 +1987,108 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19227.3628</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>23508.78</v>
+        <v>50944.75</v>
       </c>
       <c r="N13">
-        <v>568269.17</v>
+        <v>288251.2</v>
       </c>
       <c r="O13">
-        <v>2615.02</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>23508.78</v>
+        <v>50944.75</v>
       </c>
       <c r="V13">
-        <v>568269.17</v>
+        <v>288251.2</v>
       </c>
       <c r="W13">
-        <v>2615.02</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD13">
-        <v>-4696</v>
+        <v>-35938.27</v>
       </c>
       <c r="AE13">
-        <v>23271.98139999993</v>
+        <v>36615.56520000001</v>
       </c>
       <c r="AF13">
-        <v>-2615.02</v>
+        <v>29620.2079</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>22213.0016</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>-36493.87</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>4624.118900000001</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>-492.1972000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E14">
-        <v>18963.92</v>
+        <v>26099.62</v>
       </c>
       <c r="F14">
-        <v>267383.277</v>
+        <v>278579.4218</v>
       </c>
       <c r="G14">
-        <v>25093.7551</v>
+        <v>26251.5827</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2082,76 +2097,76 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="M14">
-        <v>29758.22</v>
+        <v>24651.29</v>
       </c>
       <c r="N14">
-        <v>245114.65</v>
+        <v>267851.66</v>
       </c>
       <c r="O14">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="U14">
-        <v>29758.22</v>
+        <v>24651.29</v>
       </c>
       <c r="V14">
-        <v>245114.65</v>
+        <v>267851.66</v>
       </c>
       <c r="W14">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>-10794.3</v>
+        <v>1448.329999999998</v>
       </c>
       <c r="AE14">
-        <v>22268.62700000001</v>
+        <v>10727.76179999998</v>
       </c>
       <c r="AF14">
-        <v>18288.2951</v>
+        <v>26251.5827</v>
       </c>
       <c r="AG14">
-        <v>-10800.63</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2168,28 +2183,28 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E15">
-        <v>16590.18</v>
+        <v>27006.82</v>
       </c>
       <c r="F15">
-        <v>327010.7217</v>
+        <v>264147.2883</v>
       </c>
       <c r="G15">
-        <v>25630.2434</v>
+        <v>27649.596</v>
       </c>
       <c r="H15">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2201,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="M15">
-        <v>21705.25</v>
+        <v>33999.38</v>
       </c>
       <c r="N15">
-        <v>287071.98</v>
+        <v>278850.94</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2225,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="U15">
-        <v>21705.25</v>
+        <v>33999.38</v>
       </c>
       <c r="V15">
-        <v>287071.98</v>
+        <v>278850.94</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2249,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>-5115.07</v>
+        <v>-6992.559999999998</v>
       </c>
       <c r="AE15">
-        <v>39938.74170000001</v>
+        <v>-14703.65169999999</v>
       </c>
       <c r="AF15">
-        <v>25630.2434</v>
+        <v>27649.596</v>
       </c>
       <c r="AG15">
-        <v>208.5449999999983</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2281,28 +2296,28 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16">
-        <v>18460.42</v>
+        <v>26563.62</v>
       </c>
       <c r="F16">
-        <v>281664.89</v>
+        <v>283269.233</v>
       </c>
       <c r="G16">
-        <v>25785.58</v>
+        <v>25785.5783</v>
       </c>
       <c r="H16">
-        <v>36978.89</v>
+        <v>36919.8225</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2314,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="M16">
-        <v>28420.94</v>
+        <v>32674.29</v>
       </c>
       <c r="N16">
-        <v>239742.97</v>
+        <v>290087.79</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2338,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="U16">
-        <v>28420.94</v>
+        <v>32674.29</v>
       </c>
       <c r="V16">
-        <v>239742.97</v>
+        <v>290087.79</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2362,22 +2377,22 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="AC16">
         <v>6</v>
       </c>
       <c r="AD16">
-        <v>-9960.520000000004</v>
+        <v>-6110.670000000002</v>
       </c>
       <c r="AE16">
-        <v>41921.92000000004</v>
+        <v>-6818.55700000003</v>
       </c>
       <c r="AF16">
-        <v>25785.58</v>
+        <v>25785.5783</v>
       </c>
       <c r="AG16">
-        <v>36978.89</v>
+        <v>20222.5725</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2394,28 +2409,28 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>18541.06</v>
+        <v>18812.78</v>
       </c>
       <c r="F17">
-        <v>319530.8217</v>
+        <v>591541.1514</v>
       </c>
       <c r="G17">
-        <v>36708.3923</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>37289.0207</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2424,108 +2439,108 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5373.2</v>
+        <v>95464.1189</v>
       </c>
       <c r="L17">
-        <v>82632.71000000001</v>
+        <v>19227.3628</v>
       </c>
       <c r="M17">
-        <v>24335.07</v>
+        <v>23508.78</v>
       </c>
       <c r="N17">
-        <v>247385.28</v>
+        <v>568269.17</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="P17">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="T17">
-        <v>82632.71000000001</v>
+        <v>19719.56</v>
       </c>
       <c r="U17">
-        <v>24335.07</v>
+        <v>23508.78</v>
       </c>
       <c r="V17">
-        <v>247385.28</v>
+        <v>568269.17</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="X17">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="AB17">
-        <v>82632.71000000001</v>
+        <v>19719.56</v>
       </c>
       <c r="AC17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>-5794.009999999998</v>
+        <v>-4696</v>
       </c>
       <c r="AE17">
-        <v>72145.54169999997</v>
+        <v>23271.98139999993</v>
       </c>
       <c r="AF17">
-        <v>36708.3923</v>
+        <v>-2615.02</v>
       </c>
       <c r="AG17">
-        <v>30610.1207</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>-36493.87</v>
       </c>
       <c r="AJ17">
-        <v>5373.2</v>
+        <v>4624.118900000001</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>-492.1972000000023</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>14932.88</v>
+        <v>18963.92</v>
       </c>
       <c r="F18">
-        <v>262147.1729</v>
+        <v>267383.277</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>25093.7551</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2534,31 +2549,31 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K18">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22202.17</v>
+        <v>29758.22</v>
       </c>
       <c r="N18">
-        <v>232396.83</v>
+        <v>245114.65</v>
       </c>
       <c r="O18">
-        <v>3310.93</v>
+        <v>6805.46</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2567,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>22202.17</v>
+        <v>29758.22</v>
       </c>
       <c r="V18">
-        <v>232396.83</v>
+        <v>245114.65</v>
       </c>
       <c r="W18">
-        <v>3310.93</v>
+        <v>6805.46</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2591,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>-7269.289999999999</v>
+        <v>-10794.3</v>
       </c>
       <c r="AE18">
-        <v>29750.34289999999</v>
+        <v>22268.62700000001</v>
       </c>
       <c r="AF18">
-        <v>-3310.93</v>
+        <v>18288.2951</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>-10800.63</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2612,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2620,28 +2635,28 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>16058</v>
+        <v>16590.18</v>
       </c>
       <c r="F19">
-        <v>317342.6932</v>
+        <v>327010.7217</v>
       </c>
       <c r="G19">
-        <v>26406.9175</v>
+        <v>25630.2434</v>
       </c>
       <c r="H19">
-        <v>36993.6621</v>
+        <v>36402.945</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2653,19 +2668,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>31949.91</v>
+        <v>21705.25</v>
       </c>
       <c r="N19">
-        <v>264422.99</v>
+        <v>287071.98</v>
       </c>
       <c r="O19">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2677,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>31949.91</v>
+        <v>21705.25</v>
       </c>
       <c r="V19">
-        <v>264422.99</v>
+        <v>287071.98</v>
       </c>
       <c r="W19">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2701,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>-15891.91</v>
+        <v>-5115.07</v>
       </c>
       <c r="AE19">
-        <v>52919.70320000005</v>
+        <v>39938.74170000001</v>
       </c>
       <c r="AF19">
-        <v>19817.1775</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG19">
-        <v>36993.6621</v>
+        <v>208.5449999999983</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -2733,28 +2748,28 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>15265.68</v>
+        <v>18460.42</v>
       </c>
       <c r="F20">
-        <v>311352.2643</v>
+        <v>281664.89</v>
       </c>
       <c r="G20">
-        <v>26406.9175</v>
+        <v>25785.58</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2769,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>34725.64</v>
+        <v>28420.94</v>
       </c>
       <c r="N20">
-        <v>314368.92</v>
+        <v>239742.97</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2793,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>34725.64</v>
+        <v>28420.94</v>
       </c>
       <c r="V20">
-        <v>314368.92</v>
+        <v>239742.97</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2817,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD20">
-        <v>-19459.96</v>
+        <v>-9960.520000000004</v>
       </c>
       <c r="AE20">
-        <v>-3016.655699999945</v>
+        <v>41921.92000000004</v>
       </c>
       <c r="AF20">
-        <v>26406.9175</v>
+        <v>25785.58</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2846,28 +2861,28 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>14668.56</v>
+        <v>18541.06</v>
       </c>
       <c r="F21">
-        <v>301721.9088</v>
+        <v>319530.8217</v>
       </c>
       <c r="G21">
-        <v>24232.2302</v>
+        <v>36708.3923</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2876,22 +2891,22 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M21">
-        <v>27181.54</v>
+        <v>24335.07</v>
       </c>
       <c r="N21">
-        <v>270393.7</v>
+        <v>247385.28</v>
       </c>
       <c r="O21">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2903,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="U21">
-        <v>27181.54</v>
+        <v>24335.07</v>
       </c>
       <c r="V21">
-        <v>270393.7</v>
+        <v>247385.28</v>
       </c>
       <c r="W21">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2927,22 +2942,22 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>-12512.98</v>
+        <v>-5794.009999999998</v>
       </c>
       <c r="AE21">
-        <v>31328.20880000002</v>
+        <v>72145.54169999997</v>
       </c>
       <c r="AF21">
-        <v>2142.890200000002</v>
+        <v>36708.3923</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>30610.1207</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2951,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -2959,22 +2974,22 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E22">
-        <v>30000</v>
+        <v>14932.88</v>
       </c>
       <c r="F22">
-        <v>120000</v>
+        <v>262147.1729</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2983,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L22">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>81189.56</v>
+        <v>22202.17</v>
       </c>
       <c r="N22">
-        <v>75026.78</v>
+        <v>231965.51</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3019,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>81189.56</v>
+        <v>22202.17</v>
       </c>
       <c r="V22">
-        <v>75026.78</v>
+        <v>231965.51</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3046,78 +3061,78 @@
         <v>8</v>
       </c>
       <c r="AD22">
-        <v>-51189.56</v>
+        <v>-7269.289999999999</v>
       </c>
       <c r="AE22">
-        <v>44973.22</v>
+        <v>30181.6629</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-3310.93</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="AK22">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16058</v>
       </c>
       <c r="F23">
-        <v>433983.8522</v>
+        <v>317342.6932</v>
       </c>
       <c r="G23">
-        <v>66756.6691</v>
+        <v>26406.9175</v>
       </c>
       <c r="H23">
-        <v>37362.8604</v>
+        <v>36993.6621</v>
       </c>
       <c r="I23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="M23">
-        <v>33875.99</v>
+        <v>31949.91</v>
       </c>
       <c r="N23">
-        <v>388449.69</v>
+        <v>264422.99</v>
       </c>
       <c r="O23">
-        <v>41728.31</v>
+        <v>6589.74</v>
       </c>
       <c r="P23">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3129,19 +3144,19 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="U23">
-        <v>33875.99</v>
+        <v>31949.91</v>
       </c>
       <c r="V23">
-        <v>388449.69</v>
+        <v>264422.99</v>
       </c>
       <c r="W23">
-        <v>41728.31</v>
+        <v>6589.74</v>
       </c>
       <c r="X23">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3153,31 +3168,31 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="AC23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD23">
-        <v>-33875.99</v>
+        <v>-15891.91</v>
       </c>
       <c r="AE23">
-        <v>45534.16220000002</v>
+        <v>52919.70320000005</v>
       </c>
       <c r="AF23">
-        <v>25028.3591</v>
+        <v>19817.1775</v>
       </c>
       <c r="AG23">
-        <v>3237.630399999995</v>
+        <v>36993.6621</v>
       </c>
       <c r="AH23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -3185,28 +3200,28 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>19881.64</v>
+        <v>15265.68</v>
       </c>
       <c r="F24">
-        <v>544086.7781999999</v>
+        <v>311352.2643</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H24">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3221,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24492.98</v>
+        <v>34725.64</v>
       </c>
       <c r="N24">
-        <v>532274.26</v>
+        <v>314368.92</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3245,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>24492.98</v>
+        <v>34725.64</v>
       </c>
       <c r="V24">
-        <v>532274.26</v>
+        <v>314368.92</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3269,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>-4611.340000000004</v>
+        <v>-19459.96</v>
       </c>
       <c r="AE24">
-        <v>11812.51819999993</v>
+        <v>-3016.655699999945</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="AG24">
-        <v>20665.8249</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3298,31 +3313,31 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>29792.44</v>
+        <v>80000</v>
       </c>
       <c r="F25">
-        <v>592371.3167</v>
+        <v>120000</v>
       </c>
       <c r="G25">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>37196.7212</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3331,22 +3346,22 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>500373.46</v>
+        <v>22674.42</v>
       </c>
       <c r="M25">
-        <v>35571.27</v>
+        <v>52083.67</v>
       </c>
       <c r="N25">
-        <v>48616.23</v>
+        <v>166132.1</v>
       </c>
       <c r="O25">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3355,22 +3370,22 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>35571.27</v>
+        <v>52083.67</v>
       </c>
       <c r="V25">
-        <v>48616.23</v>
+        <v>166132.1</v>
       </c>
       <c r="W25">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3379,25 +3394,25 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD25">
-        <v>-5778.829999999998</v>
+        <v>27916.33</v>
       </c>
       <c r="AE25">
-        <v>543755.0867</v>
+        <v>-46132.10000000001</v>
       </c>
       <c r="AF25">
-        <v>-11824.4069</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>113.7012000000032</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>-26413.08</v>
+        <v>35000</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3406,30 +3421,30 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>5.820766091346741E-11</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E26">
-        <v>25326.82</v>
+        <v>14668.56</v>
       </c>
       <c r="F26">
-        <v>276375.5386</v>
+        <v>301721.9088</v>
       </c>
       <c r="G26">
-        <v>25008.9042</v>
+        <v>24232.2302</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3444,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>27944</v>
+        <v>27181.54</v>
       </c>
       <c r="N26">
-        <v>230888.76</v>
+        <v>270393.7</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3468,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>27944</v>
+        <v>27181.54</v>
       </c>
       <c r="V26">
-        <v>230888.76</v>
+        <v>270393.7</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3492,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD26">
-        <v>-2617.18</v>
+        <v>-12512.98</v>
       </c>
       <c r="AE26">
-        <v>45486.77860000002</v>
+        <v>31328.20880000002</v>
       </c>
       <c r="AF26">
-        <v>25008.9042</v>
+        <v>2142.890200000002</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3524,49 +3539,49 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="1">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E27">
-        <v>18541.06</v>
+        <v>30000</v>
       </c>
       <c r="F27">
-        <v>252067.7995</v>
+        <v>120000</v>
       </c>
       <c r="G27">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>52444.52</v>
+        <v>22674.42</v>
       </c>
       <c r="M27">
-        <v>28895.31</v>
+        <v>81189.56</v>
       </c>
       <c r="N27">
-        <v>251643.6000000001</v>
+        <v>75026.78</v>
       </c>
       <c r="O27">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3578,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>52444.52</v>
+        <v>21490.444</v>
       </c>
       <c r="U27">
-        <v>28895.31</v>
+        <v>81189.56</v>
       </c>
       <c r="V27">
-        <v>251643.6000000001</v>
+        <v>75026.78</v>
       </c>
       <c r="W27">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3602,87 +3617,87 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>52444.52</v>
+        <v>21490.444</v>
       </c>
       <c r="AC27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>-10354.25</v>
+        <v>-51189.56</v>
       </c>
       <c r="AE27">
-        <v>424.1994999999588</v>
+        <v>44973.22</v>
       </c>
       <c r="AF27">
-        <v>23600.2036</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>-2429.89</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1183.975999999999</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>21854.46</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>624821.7819000001</v>
+        <v>433983.8522</v>
       </c>
       <c r="G28">
-        <v>12116.1151</v>
+        <v>66756.6691</v>
       </c>
       <c r="H28">
-        <v>40316.4462</v>
+        <v>37362.8604</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>19487.5781</v>
+        <v>110048.5105</v>
       </c>
       <c r="L28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>29071.03</v>
+        <v>33875.99</v>
       </c>
       <c r="N28">
-        <v>325344.86</v>
+        <v>388449.69</v>
       </c>
       <c r="O28">
-        <v>91485.00999999999</v>
+        <v>41728.31</v>
       </c>
       <c r="P28">
-        <v>39357.69</v>
+        <v>34125.23</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3691,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>29071.03</v>
+        <v>33875.99</v>
       </c>
       <c r="V28">
-        <v>325344.86</v>
+        <v>388449.69</v>
       </c>
       <c r="W28">
-        <v>91485.00999999999</v>
+        <v>41728.31</v>
       </c>
       <c r="X28">
-        <v>39357.69</v>
+        <v>34125.23</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3715,34 +3730,34 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD28">
-        <v>-7216.57</v>
+        <v>-33875.99</v>
       </c>
       <c r="AE28">
-        <v>299476.9219000001</v>
+        <v>45534.16220000002</v>
       </c>
       <c r="AF28">
-        <v>-79368.8949</v>
+        <v>25028.3591</v>
       </c>
       <c r="AG28">
-        <v>958.7561999999962</v>
+        <v>3237.630399999995</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>-44078.4219</v>
+        <v>110048.5105</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -3750,114 +3765,679 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>2025</v>
       </c>
       <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>19881.64</v>
+      </c>
+      <c r="F29">
+        <v>544086.7781999999</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>34335.4349</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>24492.98</v>
+      </c>
+      <c r="N29">
+        <v>532274.26</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>13669.61</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>24492.98</v>
+      </c>
+      <c r="V29">
+        <v>532274.26</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>13669.61</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>-4611.340000000004</v>
+      </c>
+      <c r="AE29">
+        <v>11812.51819999993</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>20665.8249</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>29792.44</v>
+      </c>
+      <c r="F30">
+        <v>592371.3167</v>
+      </c>
+      <c r="G30">
+        <v>25940.9131</v>
+      </c>
+      <c r="H30">
+        <v>37196.7212</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>500373.46</v>
+      </c>
+      <c r="M30">
+        <v>35571.27</v>
+      </c>
+      <c r="N30">
+        <v>48616.23</v>
+      </c>
+      <c r="O30">
+        <v>37765.32</v>
+      </c>
+      <c r="P30">
+        <v>37083.02</v>
+      </c>
+      <c r="Q30">
+        <v>26413.08</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>500373.46</v>
+      </c>
+      <c r="U30">
+        <v>35571.27</v>
+      </c>
+      <c r="V30">
+        <v>48616.23</v>
+      </c>
+      <c r="W30">
+        <v>37765.32</v>
+      </c>
+      <c r="X30">
+        <v>37083.02</v>
+      </c>
+      <c r="Y30">
+        <v>26413.08</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>500373.46</v>
+      </c>
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AD30">
+        <v>-5778.829999999998</v>
+      </c>
+      <c r="AE30">
+        <v>543755.0867</v>
+      </c>
+      <c r="AF30">
+        <v>-11824.4069</v>
+      </c>
+      <c r="AG30">
+        <v>113.7012000000032</v>
+      </c>
+      <c r="AH30">
+        <v>-26413.08</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>5.820766091346741E-11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="1">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>25326.82</v>
+      </c>
+      <c r="F31">
+        <v>276375.5386</v>
+      </c>
+      <c r="G31">
+        <v>25008.9042</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>23876.1125</v>
+      </c>
+      <c r="M31">
+        <v>27944</v>
+      </c>
+      <c r="N31">
+        <v>230888.76</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>23876.1125</v>
+      </c>
+      <c r="U31">
+        <v>27944</v>
+      </c>
+      <c r="V31">
+        <v>230888.76</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>23876.1125</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>-2617.18</v>
+      </c>
+      <c r="AE31">
+        <v>45486.77860000002</v>
+      </c>
+      <c r="AF31">
+        <v>25008.9042</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="1">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>18541.06</v>
+      </c>
+      <c r="F32">
+        <v>252067.7995</v>
+      </c>
+      <c r="G32">
+        <v>26979.2036</v>
+      </c>
+      <c r="H32">
+        <v>36919.8225</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>5600</v>
+      </c>
+      <c r="L32">
+        <v>52444.52</v>
+      </c>
+      <c r="M32">
+        <v>28895.31</v>
+      </c>
+      <c r="N32">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O32">
+        <v>3379</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>8029.89</v>
+      </c>
+      <c r="T32">
+        <v>52444.52</v>
+      </c>
+      <c r="U32">
+        <v>28895.31</v>
+      </c>
+      <c r="V32">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="W32">
+        <v>3379</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>8029.89</v>
+      </c>
+      <c r="AB32">
+        <v>52444.52</v>
+      </c>
+      <c r="AC32">
+        <v>7</v>
+      </c>
+      <c r="AD32">
+        <v>-10354.25</v>
+      </c>
+      <c r="AE32">
+        <v>424.1994999999588</v>
+      </c>
+      <c r="AF32">
+        <v>23600.2036</v>
+      </c>
+      <c r="AG32">
+        <v>36919.8225</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>-2429.89</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="C33">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>21854.46</v>
+      </c>
+      <c r="F33">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G33">
+        <v>12116.1151</v>
+      </c>
+      <c r="H33">
+        <v>40316.4462</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>19487.5781</v>
+      </c>
+      <c r="L33">
+        <v>229812.833425</v>
+      </c>
+      <c r="M33">
+        <v>33879.14</v>
+      </c>
+      <c r="N33">
+        <v>325344.86</v>
+      </c>
+      <c r="O33">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P33">
+        <v>39357.69</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>63566</v>
+      </c>
+      <c r="T33">
+        <v>229812.833425</v>
+      </c>
+      <c r="U33">
+        <v>33879.14</v>
+      </c>
+      <c r="V33">
+        <v>325344.86</v>
+      </c>
+      <c r="W33">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="X33">
+        <v>39357.69</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>63566</v>
+      </c>
+      <c r="AB33">
+        <v>229812.833425</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
+      </c>
+      <c r="AD33">
+        <v>-12024.68</v>
+      </c>
+      <c r="AE33">
+        <v>299476.9219000001</v>
+      </c>
+      <c r="AF33">
+        <v>-79368.8949</v>
+      </c>
+      <c r="AG33">
+        <v>958.7561999999962</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>-44078.4219</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2025</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
         <v>27683.86</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <v>418982.5319</v>
       </c>
-      <c r="G29">
+      <c r="G34">
         <v>51527.9349</v>
       </c>
-      <c r="H29">
+      <c r="H34">
         <v>40992.0789</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>181185.5419</v>
       </c>
-      <c r="L29">
+      <c r="L34">
         <v>60577.37</v>
       </c>
-      <c r="M29">
+      <c r="M34">
         <v>30868.28</v>
       </c>
-      <c r="N29">
+      <c r="N34">
         <v>363209.57</v>
       </c>
-      <c r="O29">
+      <c r="O34">
         <v>65966.92</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>95933.12</v>
       </c>
-      <c r="T29">
+      <c r="T34">
         <v>60577.37</v>
       </c>
-      <c r="U29">
+      <c r="U34">
         <v>30868.28</v>
       </c>
-      <c r="V29">
+      <c r="V34">
         <v>363209.57</v>
       </c>
-      <c r="W29">
+      <c r="W34">
         <v>65966.92</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <v>95933.12</v>
       </c>
-      <c r="AB29">
+      <c r="AB34">
         <v>60577.37</v>
       </c>
-      <c r="AC29">
+      <c r="AC34">
         <v>7</v>
       </c>
-      <c r="AD29">
+      <c r="AD34">
         <v>-3184.419999999998</v>
       </c>
-      <c r="AE29">
+      <c r="AE34">
         <v>55772.96189999999</v>
       </c>
-      <c r="AF29">
+      <c r="AF34">
         <v>-14438.9851</v>
       </c>
-      <c r="AG29">
+      <c r="AG34">
         <v>40992.0789</v>
       </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>85252.42190000002</v>
       </c>
-      <c r="AK29">
+      <c r="AK34">
         <v>7.275957614183426E-12</v>
       </c>
     </row>

--- a/summary/als/deviations.xlsx
+++ b/summary/als/deviations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>WELL</t>
   </si>
@@ -124,6 +124,12 @@
     <t>B&amp;H_Deviation</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAF-214</t>
   </si>
   <si>
@@ -139,6 +145,12 @@
     <t>ACAK-180</t>
   </si>
   <si>
+    <t>ACAL-139</t>
+  </si>
+  <si>
+    <t>ACAL-251H</t>
+  </si>
+  <si>
     <t>ACAO-156</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>ACAR-268</t>
   </si>
   <si>
+    <t>ACAR-269H</t>
+  </si>
+  <si>
     <t>ACSA-007</t>
   </si>
   <si>
@@ -181,6 +196,9 @@
     <t>CNO-004</t>
   </si>
   <si>
+    <t>CNOE-030</t>
+  </si>
+  <si>
     <t>CNOI-041</t>
   </si>
   <si>
@@ -196,6 +214,9 @@
     <t>YCAF-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -208,6 +229,9 @@
     <t>YLBD-045H</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
     <t>Feb</t>
   </si>
   <si>
@@ -215,6 +239,9 @@
   </si>
   <si>
     <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
   <si>
     <t>Jan</t>
@@ -581,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +726,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -708,16 +735,16 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>26603.62</v>
+        <v>12973.06</v>
       </c>
       <c r="F2">
-        <v>514831.7822</v>
+        <v>302399.9252000001</v>
       </c>
       <c r="G2">
-        <v>27028.2567</v>
+        <v>10239.5255</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -726,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>36289.75</v>
+        <v>13391.57</v>
       </c>
       <c r="N2">
-        <v>454846.71</v>
+        <v>279350.01</v>
       </c>
       <c r="O2">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -750,22 +777,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="T2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>36289.75</v>
+        <v>13391.57</v>
       </c>
       <c r="V2">
-        <v>454846.71</v>
+        <v>279350.01</v>
       </c>
       <c r="W2">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -774,25 +801,25 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="AB2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>-9686.130000000001</v>
+        <v>-418.5100000000002</v>
       </c>
       <c r="AE2">
-        <v>59985.0722</v>
+        <v>23049.91520000005</v>
       </c>
       <c r="AF2">
-        <v>-23312.6833</v>
+        <v>10239.5255</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -804,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-63774.22</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -812,7 +839,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -821,19 +848,19 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>16058</v>
+        <v>18205.06</v>
       </c>
       <c r="F3">
-        <v>317342.6932</v>
+        <v>324144.4391</v>
       </c>
       <c r="G3">
-        <v>26406.9175</v>
+        <v>25164.239</v>
       </c>
       <c r="H3">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -845,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>83511.89999999999</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>38308.97</v>
+        <v>33666.72</v>
       </c>
       <c r="N3">
-        <v>258025.36</v>
+        <v>341703.8</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -869,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>38308.97</v>
+        <v>33666.72</v>
       </c>
       <c r="V3">
-        <v>258025.36</v>
+        <v>341703.8</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -893,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD3">
-        <v>-22250.97</v>
+        <v>-15461.66</v>
       </c>
       <c r="AE3">
-        <v>59317.33320000002</v>
+        <v>-17559.36089999997</v>
       </c>
       <c r="AF3">
-        <v>26406.9175</v>
+        <v>25164.239</v>
       </c>
       <c r="AG3">
-        <v>6167.402100000003</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -920,12 +947,12 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>-300.9600000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -934,94 +961,94 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>19408.1</v>
+        <v>26603.62</v>
       </c>
       <c r="F4">
-        <v>28014.8339</v>
+        <v>514831.7822</v>
       </c>
       <c r="G4">
-        <v>55593.5105</v>
+        <v>27028.2567</v>
       </c>
       <c r="H4">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="M4">
-        <v>27337.44</v>
+        <v>36289.75</v>
       </c>
       <c r="N4">
-        <v>281453.91</v>
+        <v>454846.71</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="P4">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="U4">
-        <v>27337.44</v>
+        <v>36289.75</v>
       </c>
       <c r="V4">
-        <v>281453.91</v>
+        <v>454846.71</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="X4">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>-7929.340000000004</v>
+        <v>-9686.130000000001</v>
       </c>
       <c r="AE4">
-        <v>-253439.0761</v>
+        <v>59985.0722</v>
       </c>
       <c r="AF4">
-        <v>55593.5105</v>
+        <v>-23312.6833</v>
       </c>
       <c r="AG4">
-        <v>15112.8125</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1038,7 +1065,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1047,43 +1074,43 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>18205.06</v>
+        <v>16058</v>
       </c>
       <c r="F5">
-        <v>350421.9071</v>
+        <v>317342.6932</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H5">
-        <v>35996.8269</v>
+        <v>36993.6621</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>59030.4</v>
+        <v>83511.89999999999</v>
       </c>
       <c r="M5">
-        <v>34720.53</v>
+        <v>38308.97</v>
       </c>
       <c r="N5">
-        <v>271057.69</v>
+        <v>258025.36</v>
       </c>
       <c r="O5">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>38992.08</v>
+        <v>30826.26</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1095,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>59030.4</v>
+        <v>83812.86</v>
       </c>
       <c r="U5">
-        <v>34720.53</v>
+        <v>38308.97</v>
       </c>
       <c r="V5">
-        <v>271057.69</v>
+        <v>258025.36</v>
       </c>
       <c r="W5">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>38992.08</v>
+        <v>30826.26</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1119,39 +1146,39 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>59030.4</v>
+        <v>83812.86</v>
       </c>
       <c r="AC5">
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>-16515.47</v>
+        <v>-22250.97</v>
       </c>
       <c r="AE5">
-        <v>79364.21710000001</v>
+        <v>59317.33320000002</v>
       </c>
       <c r="AF5">
-        <v>-19401.54</v>
+        <v>26406.9175</v>
       </c>
       <c r="AG5">
-        <v>-2995.253100000002</v>
+        <v>6167.402100000003</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>-300.9600000000064</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1160,19 +1187,19 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>13645.06</v>
+        <v>19408.1</v>
       </c>
       <c r="F6">
-        <v>299354.9628</v>
+        <v>28014.8339</v>
       </c>
       <c r="G6">
-        <v>12892.7891</v>
+        <v>55593.5105</v>
       </c>
       <c r="H6">
-        <v>18459.9112</v>
+        <v>36919.8225</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1187,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19217.69</v>
+        <v>27337.44</v>
       </c>
       <c r="N6">
-        <v>258930.56</v>
+        <v>281453.91</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>21807.01</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1211,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>19217.69</v>
+        <v>27337.44</v>
       </c>
       <c r="V6">
-        <v>258930.56</v>
+        <v>281453.91</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>21807.01</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1235,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>-5572.630000000003</v>
+        <v>-7929.340000000004</v>
       </c>
       <c r="AE6">
-        <v>40424.40279999998</v>
+        <v>-253439.0761</v>
       </c>
       <c r="AF6">
-        <v>12892.7891</v>
+        <v>55593.5105</v>
       </c>
       <c r="AG6">
-        <v>18459.9112</v>
+        <v>15112.8125</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1264,7 +1291,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1273,43 +1300,43 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>35264.5</v>
+        <v>18205.06</v>
       </c>
       <c r="F7">
-        <v>290894.2855</v>
+        <v>350421.9071</v>
       </c>
       <c r="G7">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>36735.2234</v>
+        <v>35996.8269</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41846.3631</v>
+        <v>59030.4</v>
       </c>
       <c r="M7">
-        <v>37882.47</v>
+        <v>34720.53</v>
       </c>
       <c r="N7">
-        <v>278938.71</v>
+        <v>271057.69</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1321,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>41846.3631</v>
+        <v>59030.4</v>
       </c>
       <c r="U7">
-        <v>37882.47</v>
+        <v>34720.53</v>
       </c>
       <c r="V7">
-        <v>278938.71</v>
+        <v>271057.69</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1345,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>41846.3631</v>
+        <v>59030.4</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>-2617.970000000001</v>
+        <v>-16515.47</v>
       </c>
       <c r="AE7">
-        <v>11955.57549999998</v>
+        <v>79364.21710000001</v>
       </c>
       <c r="AF7">
-        <v>25630.2434</v>
+        <v>-19401.54</v>
       </c>
       <c r="AG7">
-        <v>36735.2234</v>
+        <v>-2995.253100000002</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1377,7 +1404,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1386,19 +1413,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>21182.46</v>
+        <v>13645.06</v>
       </c>
       <c r="F8">
-        <v>516832.16</v>
+        <v>299354.9628</v>
       </c>
       <c r="G8">
-        <v>41714.5254</v>
+        <v>12892.7891</v>
       </c>
       <c r="H8">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1407,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>29506.7</v>
+        <v>19217.69</v>
       </c>
       <c r="N8">
-        <v>455228.52</v>
+        <v>258930.56</v>
       </c>
       <c r="O8">
-        <v>2181.06</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1431,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>64902.09</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>29506.7</v>
+        <v>19217.69</v>
       </c>
       <c r="V8">
-        <v>455228.52</v>
+        <v>258930.56</v>
       </c>
       <c r="W8">
-        <v>2181.06</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1455,25 +1482,25 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>64902.09</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>-8324.240000000002</v>
+        <v>-5572.630000000003</v>
       </c>
       <c r="AE8">
-        <v>61603.64000000001</v>
+        <v>40424.40279999998</v>
       </c>
       <c r="AF8">
-        <v>39533.4654</v>
+        <v>12892.7891</v>
       </c>
       <c r="AG8">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1482,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-59608.69</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1490,7 +1517,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1499,19 +1526,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>25142.02</v>
+        <v>22457.38</v>
       </c>
       <c r="F9">
-        <v>277188.6893</v>
+        <v>294985.4912</v>
       </c>
       <c r="G9">
-        <v>24698.2346</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>35406.1098</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1523,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>173339.58</v>
+        <v>42006.49</v>
       </c>
       <c r="M9">
-        <v>28089.2</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="N9">
-        <v>160763.94</v>
+        <v>250365.09</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1547,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>173339.58</v>
+        <v>42006.49</v>
       </c>
       <c r="U9">
-        <v>28089.2</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="V9">
-        <v>160763.94</v>
+        <v>250365.09</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1571,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>173339.58</v>
+        <v>42006.49</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD9">
-        <v>-2947.179999999997</v>
+        <v>-18322.90000000001</v>
       </c>
       <c r="AE9">
-        <v>116424.7493</v>
+        <v>44620.40120000005</v>
       </c>
       <c r="AF9">
-        <v>24698.2346</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>35406.1098</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1603,7 +1630,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
@@ -1612,19 +1639,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10">
-        <v>26099.62</v>
+        <v>44610.66</v>
       </c>
       <c r="F10">
-        <v>278579.4218</v>
+        <v>358194.8644</v>
       </c>
       <c r="G10">
-        <v>26251.5827</v>
+        <v>49129.3974</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>25843.8757</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1633,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L10">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>24651.29</v>
+        <v>24406.71</v>
       </c>
       <c r="N10">
-        <v>267851.66</v>
+        <v>334593.33</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5162.22</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1657,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="T10">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>24651.29</v>
+        <v>24406.71</v>
       </c>
       <c r="V10">
-        <v>267851.66</v>
+        <v>334593.33</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5162.22</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1681,25 +1708,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="AB10">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD10">
-        <v>1448.329999999998</v>
+        <v>20203.95</v>
       </c>
       <c r="AE10">
-        <v>10727.76179999998</v>
+        <v>23601.53439999995</v>
       </c>
       <c r="AF10">
-        <v>26251.5827</v>
+        <v>43967.1774</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3087.645700000001</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1708,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>-46630.05740000001</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1716,7 +1743,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -1725,19 +1752,19 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E11">
-        <v>27006.82</v>
+        <v>35264.5</v>
       </c>
       <c r="F11">
-        <v>264147.2883</v>
+        <v>290894.2855</v>
       </c>
       <c r="G11">
-        <v>27649.596</v>
+        <v>25630.2434</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1749,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>64312.56099999999</v>
+        <v>41846.3631</v>
       </c>
       <c r="M11">
-        <v>33999.38</v>
+        <v>37882.47</v>
       </c>
       <c r="N11">
-        <v>278850.94</v>
+        <v>278938.71</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1773,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>64312.56099999999</v>
+        <v>41846.3631</v>
       </c>
       <c r="U11">
-        <v>33999.38</v>
+        <v>37882.47</v>
       </c>
       <c r="V11">
-        <v>278850.94</v>
+        <v>278938.71</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1797,22 +1824,22 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>64312.56099999999</v>
+        <v>41846.3631</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>-6992.559999999998</v>
+        <v>-2617.970000000001</v>
       </c>
       <c r="AE11">
-        <v>-14703.65169999999</v>
+        <v>11955.57549999998</v>
       </c>
       <c r="AF11">
-        <v>27649.596</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1829,7 +1856,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1838,19 +1865,19 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E12">
-        <v>26563.62</v>
+        <v>21182.46</v>
       </c>
       <c r="F12">
-        <v>283269.233</v>
+        <v>516832.16</v>
       </c>
       <c r="G12">
-        <v>25785.5783</v>
+        <v>41714.5254</v>
       </c>
       <c r="H12">
-        <v>36919.8225</v>
+        <v>36735.2234</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1859,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L12">
-        <v>18450</v>
+        <v>199012.794</v>
       </c>
       <c r="M12">
-        <v>32674.29</v>
+        <v>29506.7</v>
       </c>
       <c r="N12">
-        <v>290087.79</v>
+        <v>455228.52</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="P12">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1883,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="T12">
-        <v>18450</v>
+        <v>199012.794</v>
       </c>
       <c r="U12">
-        <v>32674.29</v>
+        <v>29506.7</v>
       </c>
       <c r="V12">
-        <v>290087.79</v>
+        <v>455228.52</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="X12">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1907,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="AB12">
-        <v>18450</v>
+        <v>199012.794</v>
       </c>
       <c r="AC12">
         <v>6</v>
       </c>
       <c r="AD12">
-        <v>-6110.670000000002</v>
+        <v>-8324.240000000002</v>
       </c>
       <c r="AE12">
-        <v>-6818.55700000003</v>
+        <v>61603.64000000001</v>
       </c>
       <c r="AF12">
-        <v>25785.5783</v>
+        <v>39533.4654</v>
       </c>
       <c r="AG12">
-        <v>20222.5725</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1934,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>-59608.69</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -1942,28 +1969,28 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>18812.78</v>
+        <v>18397.06</v>
       </c>
       <c r="F13">
-        <v>591541.1514</v>
+        <v>326646.9343</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>24329.9319</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1972,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19227.3628</v>
+        <v>36863.1</v>
       </c>
       <c r="M13">
-        <v>23508.78</v>
+        <v>36093.04</v>
       </c>
       <c r="N13">
-        <v>568269.17</v>
+        <v>324824.84</v>
       </c>
       <c r="O13">
-        <v>2615.02</v>
+        <v>7421.05</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1993,22 +2020,22 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>19719.56</v>
+        <v>36863.1</v>
       </c>
       <c r="U13">
-        <v>23508.78</v>
+        <v>36093.04</v>
       </c>
       <c r="V13">
-        <v>568269.17</v>
+        <v>324824.84</v>
       </c>
       <c r="W13">
-        <v>2615.02</v>
+        <v>7421.05</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2017,141 +2044,141 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>19719.56</v>
+        <v>36863.1</v>
       </c>
       <c r="AC13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD13">
-        <v>-4696</v>
+        <v>-17695.98</v>
       </c>
       <c r="AE13">
-        <v>23271.98139999993</v>
+        <v>1822.094299999939</v>
       </c>
       <c r="AF13">
-        <v>-2615.02</v>
+        <v>16908.8819</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>-36493.87</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>4624.118900000001</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>-492.1972000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E14">
-        <v>18963.92</v>
+        <v>25142.02</v>
       </c>
       <c r="F14">
-        <v>267383.277</v>
+        <v>277188.6893</v>
       </c>
       <c r="G14">
-        <v>25093.7551</v>
+        <v>24698.2346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
       <c r="M14">
-        <v>29758.22</v>
+        <v>28089.2</v>
       </c>
       <c r="N14">
-        <v>245114.65</v>
+        <v>160763.94</v>
       </c>
       <c r="O14">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
       <c r="U14">
-        <v>29758.22</v>
+        <v>28089.2</v>
       </c>
       <c r="V14">
-        <v>245114.65</v>
+        <v>160763.94</v>
       </c>
       <c r="W14">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>-10794.3</v>
+        <v>-2947.179999999997</v>
       </c>
       <c r="AE14">
-        <v>22268.62700000001</v>
+        <v>116424.7493</v>
       </c>
       <c r="AF14">
-        <v>18288.2951</v>
+        <v>24698.2346</v>
       </c>
       <c r="AG14">
-        <v>-10800.63</v>
+        <v>35406.1098</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2168,28 +2195,28 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>16590.18</v>
+        <v>15006.48</v>
       </c>
       <c r="F15">
-        <v>327010.7217</v>
+        <v>324866.7652</v>
       </c>
       <c r="G15">
-        <v>25630.2434</v>
+        <v>38730.0079</v>
       </c>
       <c r="H15">
-        <v>36402.945</v>
+        <v>39190.3916</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2204,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21705.25</v>
+        <v>50944.75</v>
       </c>
       <c r="N15">
-        <v>287071.98</v>
+        <v>288251.2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P15">
-        <v>36194.4</v>
+        <v>16977.39</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2228,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>21705.25</v>
+        <v>50944.75</v>
       </c>
       <c r="V15">
-        <v>287071.98</v>
+        <v>288251.2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="X15">
-        <v>36194.4</v>
+        <v>16977.39</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2252,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD15">
-        <v>-5115.07</v>
+        <v>-35938.27</v>
       </c>
       <c r="AE15">
-        <v>39938.74170000001</v>
+        <v>36615.56520000001</v>
       </c>
       <c r="AF15">
-        <v>25630.2434</v>
+        <v>29620.2079</v>
       </c>
       <c r="AG15">
-        <v>208.5449999999983</v>
+        <v>22213.0016</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2281,28 +2308,28 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E16">
-        <v>18460.42</v>
+        <v>26099.62</v>
       </c>
       <c r="F16">
-        <v>281664.89</v>
+        <v>278579.4218</v>
       </c>
       <c r="G16">
-        <v>25785.58</v>
+        <v>26251.5827</v>
       </c>
       <c r="H16">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2314,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="M16">
-        <v>28420.94</v>
+        <v>24651.29</v>
       </c>
       <c r="N16">
-        <v>239742.97</v>
+        <v>267851.66</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2338,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="U16">
-        <v>28420.94</v>
+        <v>24651.29</v>
       </c>
       <c r="V16">
-        <v>239742.97</v>
+        <v>267851.66</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2362,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
       <c r="AC16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>-9960.520000000004</v>
+        <v>1448.329999999998</v>
       </c>
       <c r="AE16">
-        <v>41921.92000000004</v>
+        <v>10727.76179999998</v>
       </c>
       <c r="AF16">
-        <v>25785.58</v>
+        <v>26251.5827</v>
       </c>
       <c r="AG16">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2394,28 +2421,28 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E17">
-        <v>18541.06</v>
+        <v>27006.82</v>
       </c>
       <c r="F17">
-        <v>319530.8217</v>
+        <v>264147.2883</v>
       </c>
       <c r="G17">
-        <v>36708.3923</v>
+        <v>27649.596</v>
       </c>
       <c r="H17">
-        <v>37289.0207</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2424,22 +2451,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>82632.71000000001</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="M17">
-        <v>24335.07</v>
+        <v>33999.38</v>
       </c>
       <c r="N17">
-        <v>247385.28</v>
+        <v>278850.94</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2451,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>82632.71000000001</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="U17">
-        <v>24335.07</v>
+        <v>33999.38</v>
       </c>
       <c r="V17">
-        <v>247385.28</v>
+        <v>278850.94</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2475,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>82632.71000000001</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="AC17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>-5794.009999999998</v>
+        <v>-6992.559999999998</v>
       </c>
       <c r="AE17">
-        <v>72145.54169999997</v>
+        <v>-14703.65169999999</v>
       </c>
       <c r="AF17">
-        <v>36708.3923</v>
+        <v>27649.596</v>
       </c>
       <c r="AG17">
-        <v>30610.1207</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2499,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -2507,28 +2534,28 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E18">
-        <v>14932.88</v>
+        <v>26563.62</v>
       </c>
       <c r="F18">
-        <v>262147.1729</v>
+        <v>283269.233</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>25785.5783</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2537,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="M18">
-        <v>22202.17</v>
+        <v>32674.29</v>
       </c>
       <c r="N18">
-        <v>232396.83</v>
+        <v>290087.79</v>
       </c>
       <c r="O18">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2564,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="U18">
-        <v>22202.17</v>
+        <v>32674.29</v>
       </c>
       <c r="V18">
-        <v>232396.83</v>
+        <v>290087.79</v>
       </c>
       <c r="W18">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2588,22 +2615,22 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD18">
-        <v>-7269.289999999999</v>
+        <v>-6110.670000000002</v>
       </c>
       <c r="AE18">
-        <v>29750.34289999999</v>
+        <v>-6818.55700000003</v>
       </c>
       <c r="AF18">
-        <v>-3310.93</v>
+        <v>25785.5783</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>20222.5725</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2612,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2620,28 +2647,28 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E19">
-        <v>16058</v>
+        <v>18812.78</v>
       </c>
       <c r="F19">
-        <v>317342.6932</v>
+        <v>591541.1514</v>
       </c>
       <c r="G19">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2650,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="L19">
-        <v>14106.87</v>
+        <v>19227.3628</v>
       </c>
       <c r="M19">
-        <v>31949.91</v>
+        <v>23508.78</v>
       </c>
       <c r="N19">
-        <v>264422.99</v>
+        <v>568269.17</v>
       </c>
       <c r="O19">
-        <v>6589.74</v>
+        <v>2615.02</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2671,22 +2698,22 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="T19">
-        <v>14106.87</v>
+        <v>19719.56</v>
       </c>
       <c r="U19">
-        <v>31949.91</v>
+        <v>23508.78</v>
       </c>
       <c r="V19">
-        <v>264422.99</v>
+        <v>568269.17</v>
       </c>
       <c r="W19">
-        <v>6589.74</v>
+        <v>2615.02</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2695,63 +2722,63 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="AB19">
-        <v>14106.87</v>
+        <v>19719.56</v>
       </c>
       <c r="AC19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>-15891.91</v>
+        <v>-4696</v>
       </c>
       <c r="AE19">
-        <v>52919.70320000005</v>
+        <v>23271.98139999993</v>
       </c>
       <c r="AF19">
-        <v>19817.1775</v>
+        <v>-2615.02</v>
       </c>
       <c r="AG19">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>-36493.87</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>4624.118900000001</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>-492.1972000000023</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>15265.68</v>
+        <v>18963.92</v>
       </c>
       <c r="F20">
-        <v>311352.2643</v>
+        <v>267383.277</v>
       </c>
       <c r="G20">
-        <v>26406.9175</v>
+        <v>25093.7551</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2760,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2769,22 +2796,22 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>34725.64</v>
+        <v>29758.22</v>
       </c>
       <c r="N20">
-        <v>314368.92</v>
+        <v>245114.65</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2793,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>34725.64</v>
+        <v>29758.22</v>
       </c>
       <c r="V20">
-        <v>314368.92</v>
+        <v>245114.65</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2817,19 +2844,19 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20">
-        <v>-19459.96</v>
+        <v>-10794.3</v>
       </c>
       <c r="AE20">
-        <v>-3016.655699999945</v>
+        <v>22268.62700000001</v>
       </c>
       <c r="AF20">
-        <v>26406.9175</v>
+        <v>18288.2951</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>-10800.63</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2846,28 +2873,28 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E21">
-        <v>14668.56</v>
+        <v>16590.18</v>
       </c>
       <c r="F21">
-        <v>301721.9088</v>
+        <v>327010.7217</v>
       </c>
       <c r="G21">
-        <v>24232.2302</v>
+        <v>25630.2434</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>36402.945</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2882,16 +2909,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27181.54</v>
+        <v>21705.25</v>
       </c>
       <c r="N21">
-        <v>270393.7</v>
+        <v>287071.98</v>
       </c>
       <c r="O21">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2906,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>27181.54</v>
+        <v>21705.25</v>
       </c>
       <c r="V21">
-        <v>270393.7</v>
+        <v>287071.98</v>
       </c>
       <c r="W21">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2930,19 +2957,19 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>-12512.98</v>
+        <v>-5115.07</v>
       </c>
       <c r="AE21">
-        <v>31328.20880000002</v>
+        <v>39938.74170000001</v>
       </c>
       <c r="AF21">
-        <v>2142.890200000002</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>208.5449999999983</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2959,31 +2986,31 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E22">
-        <v>30000</v>
+        <v>18460.42</v>
       </c>
       <c r="F22">
-        <v>120000</v>
+        <v>281664.89</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>25785.58</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="I22">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2992,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>81189.56</v>
+        <v>28420.94</v>
       </c>
       <c r="N22">
-        <v>75026.78</v>
+        <v>239742.97</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3019,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>81189.56</v>
+        <v>28420.94</v>
       </c>
       <c r="V22">
-        <v>75026.78</v>
+        <v>239742.97</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3043,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD22">
-        <v>-51189.56</v>
+        <v>-9960.520000000004</v>
       </c>
       <c r="AE22">
-        <v>44973.22</v>
+        <v>41921.92000000004</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>25785.58</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="AH22">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -3067,57 +3094,57 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18541.06</v>
       </c>
       <c r="F23">
-        <v>433983.8522</v>
+        <v>319530.8217</v>
       </c>
       <c r="G23">
-        <v>66756.6691</v>
+        <v>36708.3923</v>
       </c>
       <c r="H23">
-        <v>37362.8604</v>
+        <v>37289.0207</v>
       </c>
       <c r="I23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>110048.5105</v>
+        <v>5373.2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M23">
-        <v>33875.99</v>
+        <v>24335.07</v>
       </c>
       <c r="N23">
-        <v>388449.69</v>
+        <v>247385.28</v>
       </c>
       <c r="O23">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>34125.23</v>
+        <v>6678.9</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3129,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="U23">
-        <v>33875.99</v>
+        <v>24335.07</v>
       </c>
       <c r="V23">
-        <v>388449.69</v>
+        <v>247385.28</v>
       </c>
       <c r="W23">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>34125.23</v>
+        <v>6678.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3153,31 +3180,31 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="AC23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <v>-33875.99</v>
+        <v>-5794.009999999998</v>
       </c>
       <c r="AE23">
-        <v>45534.16220000002</v>
+        <v>72145.54169999997</v>
       </c>
       <c r="AF23">
-        <v>25028.3591</v>
+        <v>36708.3923</v>
       </c>
       <c r="AG23">
-        <v>3237.630399999995</v>
+        <v>30610.1207</v>
       </c>
       <c r="AH23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>110048.5105</v>
+        <v>5373.2</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -3185,28 +3212,28 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E24">
-        <v>19881.64</v>
+        <v>14932.88</v>
       </c>
       <c r="F24">
-        <v>544086.7781999999</v>
+        <v>262147.1729</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3215,22 +3242,22 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24492.98</v>
+        <v>22202.17</v>
       </c>
       <c r="N24">
-        <v>532274.26</v>
+        <v>231965.51</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="P24">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3245,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>24492.98</v>
+        <v>22202.17</v>
       </c>
       <c r="V24">
-        <v>532274.26</v>
+        <v>231965.51</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="X24">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3269,19 +3296,19 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>-4611.340000000004</v>
+        <v>-7269.289999999999</v>
       </c>
       <c r="AE24">
-        <v>11812.51819999993</v>
+        <v>30181.6629</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>-3310.93</v>
       </c>
       <c r="AG24">
-        <v>20665.8249</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3290,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3298,28 +3325,28 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>29792.44</v>
+        <v>16058</v>
       </c>
       <c r="F25">
-        <v>592371.3167</v>
+        <v>317342.6932</v>
       </c>
       <c r="G25">
-        <v>25940.9131</v>
+        <v>26406.9175</v>
       </c>
       <c r="H25">
-        <v>37196.7212</v>
+        <v>36993.6621</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3331,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>500373.46</v>
+        <v>14106.87</v>
       </c>
       <c r="M25">
-        <v>35571.27</v>
+        <v>31949.91</v>
       </c>
       <c r="N25">
-        <v>48616.23</v>
+        <v>264422.99</v>
       </c>
       <c r="O25">
-        <v>37765.32</v>
+        <v>6589.74</v>
       </c>
       <c r="P25">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3355,22 +3382,22 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>500373.46</v>
+        <v>14106.87</v>
       </c>
       <c r="U25">
-        <v>35571.27</v>
+        <v>31949.91</v>
       </c>
       <c r="V25">
-        <v>48616.23</v>
+        <v>264422.99</v>
       </c>
       <c r="W25">
-        <v>37765.32</v>
+        <v>6589.74</v>
       </c>
       <c r="X25">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3379,25 +3406,25 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>500373.46</v>
+        <v>14106.87</v>
       </c>
       <c r="AC25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD25">
-        <v>-5778.829999999998</v>
+        <v>-15891.91</v>
       </c>
       <c r="AE25">
-        <v>543755.0867</v>
+        <v>52919.70320000005</v>
       </c>
       <c r="AF25">
-        <v>-11824.4069</v>
+        <v>19817.1775</v>
       </c>
       <c r="AG25">
-        <v>113.7012000000032</v>
+        <v>36993.6621</v>
       </c>
       <c r="AH25">
-        <v>-26413.08</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3406,30 +3433,30 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>5.820766091346741E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E26">
-        <v>25326.82</v>
+        <v>15265.68</v>
       </c>
       <c r="F26">
-        <v>276375.5386</v>
+        <v>311352.2643</v>
       </c>
       <c r="G26">
-        <v>25008.9042</v>
+        <v>26406.9175</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3444,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>27944</v>
+        <v>34725.64</v>
       </c>
       <c r="N26">
-        <v>230888.76</v>
+        <v>314368.92</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3468,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>27944</v>
+        <v>34725.64</v>
       </c>
       <c r="V26">
-        <v>230888.76</v>
+        <v>314368.92</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3492,19 +3519,19 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>1</v>
       </c>
       <c r="AD26">
-        <v>-2617.18</v>
+        <v>-19459.96</v>
       </c>
       <c r="AE26">
-        <v>45486.77860000002</v>
+        <v>-3016.655699999945</v>
       </c>
       <c r="AF26">
-        <v>25008.9042</v>
+        <v>26406.9175</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3524,49 +3551,49 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="1">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>18541.06</v>
+        <v>80000</v>
       </c>
       <c r="F27">
-        <v>252067.7995</v>
+        <v>120000</v>
       </c>
       <c r="G27">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>52444.52</v>
+        <v>22674.42</v>
       </c>
       <c r="M27">
-        <v>28895.31</v>
+        <v>52083.67</v>
       </c>
       <c r="N27">
-        <v>251643.6000000001</v>
+        <v>166132.1</v>
       </c>
       <c r="O27">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3578,19 +3605,19 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>28895.31</v>
+        <v>52083.67</v>
       </c>
       <c r="V27">
-        <v>251643.6000000001</v>
+        <v>166132.1</v>
       </c>
       <c r="W27">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3602,63 +3629,63 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD27">
-        <v>-10354.25</v>
+        <v>27916.33</v>
       </c>
       <c r="AE27">
-        <v>424.1994999999588</v>
+        <v>-46132.10000000001</v>
       </c>
       <c r="AF27">
-        <v>23600.2036</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>-2429.89</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E28">
-        <v>21854.46</v>
+        <v>14668.56</v>
       </c>
       <c r="F28">
-        <v>624821.7819000001</v>
+        <v>301721.9088</v>
       </c>
       <c r="G28">
-        <v>12116.1151</v>
+        <v>24232.2302</v>
       </c>
       <c r="H28">
-        <v>40316.4462</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3667,22 +3694,22 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>29071.03</v>
+        <v>27181.54</v>
       </c>
       <c r="N28">
-        <v>325344.86</v>
+        <v>270393.7</v>
       </c>
       <c r="O28">
-        <v>91485.00999999999</v>
+        <v>22089.34</v>
       </c>
       <c r="P28">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3691,22 +3718,22 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>29071.03</v>
+        <v>27181.54</v>
       </c>
       <c r="V28">
-        <v>325344.86</v>
+        <v>270393.7</v>
       </c>
       <c r="W28">
-        <v>91485.00999999999</v>
+        <v>22089.34</v>
       </c>
       <c r="X28">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3715,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>6</v>
       </c>
       <c r="AD28">
-        <v>-7216.57</v>
+        <v>-12512.98</v>
       </c>
       <c r="AE28">
-        <v>299476.9219000001</v>
+        <v>31328.20880000002</v>
       </c>
       <c r="AF28">
-        <v>-79368.8949</v>
+        <v>2142.890200000002</v>
       </c>
       <c r="AG28">
-        <v>958.7561999999962</v>
+        <v>0</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3742,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>-44078.4219</v>
+        <v>0</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -3750,114 +3777,1018 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>2025</v>
       </c>
       <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29">
+        <v>30000</v>
+      </c>
+      <c r="F29">
+        <v>120000</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>70000</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>22674.42</v>
+      </c>
+      <c r="M29">
+        <v>81189.56</v>
+      </c>
+      <c r="N29">
+        <v>75026.78</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>21490.444</v>
+      </c>
+      <c r="U29">
+        <v>81189.56</v>
+      </c>
+      <c r="V29">
+        <v>75026.78</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>21490.444</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>-51189.56</v>
+      </c>
+      <c r="AE29">
+        <v>44973.22</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>70000</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1183.975999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="1">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>433983.8522</v>
+      </c>
+      <c r="G30">
+        <v>66756.6691</v>
+      </c>
+      <c r="H30">
+        <v>37362.8604</v>
+      </c>
+      <c r="I30">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>110048.5105</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>33875.99</v>
+      </c>
+      <c r="N30">
+        <v>388449.69</v>
+      </c>
+      <c r="O30">
+        <v>41728.31</v>
+      </c>
+      <c r="P30">
+        <v>34125.23</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>33875.99</v>
+      </c>
+      <c r="V30">
+        <v>388449.69</v>
+      </c>
+      <c r="W30">
+        <v>41728.31</v>
+      </c>
+      <c r="X30">
+        <v>34125.23</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>-33875.99</v>
+      </c>
+      <c r="AE30">
+        <v>45534.16220000002</v>
+      </c>
+      <c r="AF30">
+        <v>25028.3591</v>
+      </c>
+      <c r="AG30">
+        <v>3237.630399999995</v>
+      </c>
+      <c r="AH30">
+        <v>10000</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>110048.5105</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="1">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>19881.64</v>
+      </c>
+      <c r="F31">
+        <v>544086.7781999999</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>34335.4349</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>24492.98</v>
+      </c>
+      <c r="N31">
+        <v>532274.26</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>13669.61</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>24492.98</v>
+      </c>
+      <c r="V31">
+        <v>532274.26</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>13669.61</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>-4611.340000000004</v>
+      </c>
+      <c r="AE31">
+        <v>11812.51819999993</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>20665.8249</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="1">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>29792.44</v>
+      </c>
+      <c r="F32">
+        <v>592371.3167</v>
+      </c>
+      <c r="G32">
+        <v>25940.9131</v>
+      </c>
+      <c r="H32">
+        <v>37196.7212</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>500373.46</v>
+      </c>
+      <c r="M32">
+        <v>35571.27</v>
+      </c>
+      <c r="N32">
+        <v>48616.23</v>
+      </c>
+      <c r="O32">
+        <v>37765.32</v>
+      </c>
+      <c r="P32">
+        <v>37083.02</v>
+      </c>
+      <c r="Q32">
+        <v>26413.08</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>500373.46</v>
+      </c>
+      <c r="U32">
+        <v>35571.27</v>
+      </c>
+      <c r="V32">
+        <v>48616.23</v>
+      </c>
+      <c r="W32">
+        <v>37765.32</v>
+      </c>
+      <c r="X32">
+        <v>37083.02</v>
+      </c>
+      <c r="Y32">
+        <v>26413.08</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>500373.46</v>
+      </c>
+      <c r="AC32">
+        <v>7</v>
+      </c>
+      <c r="AD32">
+        <v>-5778.829999999998</v>
+      </c>
+      <c r="AE32">
+        <v>543755.0867</v>
+      </c>
+      <c r="AF32">
+        <v>-11824.4069</v>
+      </c>
+      <c r="AG32">
+        <v>113.7012000000032</v>
+      </c>
+      <c r="AH32">
+        <v>-26413.08</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>5.820766091346741E-11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="C33">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <v>23898.82</v>
+      </c>
+      <c r="F33">
+        <v>409625.5938</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>32674.0429</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>74021.34</v>
+      </c>
+      <c r="M33">
+        <v>26512.21</v>
+      </c>
+      <c r="N33">
+        <v>337917.65</v>
+      </c>
+      <c r="O33">
+        <v>60888.94</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>74021.34</v>
+      </c>
+      <c r="U33">
+        <v>26512.21</v>
+      </c>
+      <c r="V33">
+        <v>337917.65</v>
+      </c>
+      <c r="W33">
+        <v>60888.94</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>74021.34</v>
+      </c>
+      <c r="AC33">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <v>-2613.389999999999</v>
+      </c>
+      <c r="AE33">
+        <v>71707.94380000007</v>
+      </c>
+      <c r="AF33">
+        <v>-60888.94</v>
+      </c>
+      <c r="AG33">
+        <v>32674.0429</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2025</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>25326.82</v>
+      </c>
+      <c r="F34">
+        <v>276375.5386</v>
+      </c>
+      <c r="G34">
+        <v>25008.9042</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>23876.1125</v>
+      </c>
+      <c r="M34">
+        <v>27944</v>
+      </c>
+      <c r="N34">
+        <v>230888.76</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>23876.1125</v>
+      </c>
+      <c r="U34">
+        <v>27944</v>
+      </c>
+      <c r="V34">
+        <v>230888.76</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>23876.1125</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>-2617.18</v>
+      </c>
+      <c r="AE34">
+        <v>45486.77860000002</v>
+      </c>
+      <c r="AF34">
+        <v>25008.9042</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>18541.06</v>
+      </c>
+      <c r="F35">
+        <v>252067.7995</v>
+      </c>
+      <c r="G35">
+        <v>26979.2036</v>
+      </c>
+      <c r="H35">
+        <v>36919.8225</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>5600</v>
+      </c>
+      <c r="L35">
+        <v>52444.52</v>
+      </c>
+      <c r="M35">
+        <v>28895.31</v>
+      </c>
+      <c r="N35">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O35">
+        <v>3379</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>8029.89</v>
+      </c>
+      <c r="T35">
+        <v>52444.52</v>
+      </c>
+      <c r="U35">
+        <v>28895.31</v>
+      </c>
+      <c r="V35">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="W35">
+        <v>3379</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>8029.89</v>
+      </c>
+      <c r="AB35">
+        <v>52444.52</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>-10354.25</v>
+      </c>
+      <c r="AE35">
+        <v>424.1994999999588</v>
+      </c>
+      <c r="AF35">
+        <v>23600.2036</v>
+      </c>
+      <c r="AG35">
+        <v>36919.8225</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>-2429.89</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>21854.46</v>
+      </c>
+      <c r="F36">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G36">
+        <v>12116.1151</v>
+      </c>
+      <c r="H36">
+        <v>40316.4462</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>19487.5781</v>
+      </c>
+      <c r="L36">
+        <v>229812.833425</v>
+      </c>
+      <c r="M36">
+        <v>33879.14</v>
+      </c>
+      <c r="N36">
+        <v>325344.86</v>
+      </c>
+      <c r="O36">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P36">
+        <v>39357.69</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>63566</v>
+      </c>
+      <c r="T36">
+        <v>229812.833425</v>
+      </c>
+      <c r="U36">
+        <v>33879.14</v>
+      </c>
+      <c r="V36">
+        <v>325344.86</v>
+      </c>
+      <c r="W36">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="X36">
+        <v>39357.69</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>63566</v>
+      </c>
+      <c r="AB36">
+        <v>229812.833425</v>
+      </c>
+      <c r="AC36">
+        <v>6</v>
+      </c>
+      <c r="AD36">
+        <v>-12024.68</v>
+      </c>
+      <c r="AE36">
+        <v>299476.9219000001</v>
+      </c>
+      <c r="AF36">
+        <v>-79368.8949</v>
+      </c>
+      <c r="AG36">
+        <v>958.7561999999962</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>-44078.4219</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37">
         <v>27683.86</v>
       </c>
-      <c r="F29">
+      <c r="F37">
         <v>418982.5319</v>
       </c>
-      <c r="G29">
+      <c r="G37">
         <v>51527.9349</v>
       </c>
-      <c r="H29">
+      <c r="H37">
         <v>40992.0789</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>181185.5419</v>
       </c>
-      <c r="L29">
+      <c r="L37">
         <v>60577.37</v>
       </c>
-      <c r="M29">
-        <v>30868.28</v>
-      </c>
-      <c r="N29">
+      <c r="M37">
+        <v>136868.28</v>
+      </c>
+      <c r="N37">
         <v>363209.57</v>
       </c>
-      <c r="O29">
+      <c r="O37">
         <v>65966.92</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>95933.12</v>
       </c>
-      <c r="T29">
+      <c r="T37">
         <v>60577.37</v>
       </c>
-      <c r="U29">
-        <v>30868.28</v>
-      </c>
-      <c r="V29">
+      <c r="U37">
+        <v>136868.28</v>
+      </c>
+      <c r="V37">
         <v>363209.57</v>
       </c>
-      <c r="W29">
+      <c r="W37">
         <v>65966.92</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
         <v>95933.12</v>
       </c>
-      <c r="AB29">
+      <c r="AB37">
         <v>60577.37</v>
       </c>
-      <c r="AC29">
+      <c r="AC37">
         <v>7</v>
       </c>
-      <c r="AD29">
-        <v>-3184.419999999998</v>
-      </c>
-      <c r="AE29">
+      <c r="AD37">
+        <v>-109184.42</v>
+      </c>
+      <c r="AE37">
         <v>55772.96189999999</v>
       </c>
-      <c r="AF29">
+      <c r="AF37">
         <v>-14438.9851</v>
       </c>
-      <c r="AG29">
+      <c r="AG37">
         <v>40992.0789</v>
       </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>85252.42190000002</v>
       </c>
-      <c r="AK29">
+      <c r="AK37">
         <v>7.275957614183426E-12</v>
       </c>
     </row>

--- a/summary/als/deviations.xlsx
+++ b/summary/als/deviations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>WELL</t>
   </si>
@@ -124,6 +124,12 @@
     <t>B&amp;H_Deviation</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAF-214</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>YCAF-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>YLBD-045H</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
   <si>
     <t>Feb</t>
@@ -596,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +726,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -723,16 +735,16 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>26603.62</v>
+        <v>12973.06</v>
       </c>
       <c r="F2">
-        <v>514831.7822</v>
+        <v>302399.9252000001</v>
       </c>
       <c r="G2">
-        <v>27028.2567</v>
+        <v>10239.5255</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -741,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>36289.75</v>
+        <v>13391.57</v>
       </c>
       <c r="N2">
-        <v>454846.71</v>
+        <v>279350.01</v>
       </c>
       <c r="O2">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -765,22 +777,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="T2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>36289.75</v>
+        <v>13391.57</v>
       </c>
       <c r="V2">
-        <v>454846.71</v>
+        <v>279350.01</v>
       </c>
       <c r="W2">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -789,25 +801,25 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="AB2">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>-9686.130000000001</v>
+        <v>-418.5100000000002</v>
       </c>
       <c r="AE2">
-        <v>59985.0722</v>
+        <v>23049.91520000005</v>
       </c>
       <c r="AF2">
-        <v>-23312.6833</v>
+        <v>10239.5255</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -819,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-63774.22</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -827,7 +839,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -836,19 +848,19 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>16058</v>
+        <v>18205.06</v>
       </c>
       <c r="F3">
-        <v>317342.6932</v>
+        <v>324144.4391</v>
       </c>
       <c r="G3">
-        <v>26406.9175</v>
+        <v>25164.239</v>
       </c>
       <c r="H3">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -860,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>83511.89999999999</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>38308.97</v>
+        <v>33666.72</v>
       </c>
       <c r="N3">
-        <v>258025.36</v>
+        <v>341703.8</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -884,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>38308.97</v>
+        <v>33666.72</v>
       </c>
       <c r="V3">
-        <v>258025.36</v>
+        <v>341703.8</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -908,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD3">
-        <v>-22250.97</v>
+        <v>-15461.66</v>
       </c>
       <c r="AE3">
-        <v>59317.33320000002</v>
+        <v>-17559.36089999997</v>
       </c>
       <c r="AF3">
-        <v>26406.9175</v>
+        <v>25164.239</v>
       </c>
       <c r="AG3">
-        <v>6167.402100000003</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -935,12 +947,12 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>-300.9600000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -949,94 +961,94 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>19408.1</v>
+        <v>26603.62</v>
       </c>
       <c r="F4">
-        <v>28014.8339</v>
+        <v>514831.7822</v>
       </c>
       <c r="G4">
-        <v>55593.5105</v>
+        <v>27028.2567</v>
       </c>
       <c r="H4">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="M4">
-        <v>27337.44</v>
+        <v>36289.75</v>
       </c>
       <c r="N4">
-        <v>281453.91</v>
+        <v>454846.71</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="P4">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="U4">
-        <v>27337.44</v>
+        <v>36289.75</v>
       </c>
       <c r="V4">
-        <v>281453.91</v>
+        <v>454846.71</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="X4">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>-7929.340000000004</v>
+        <v>-9686.130000000001</v>
       </c>
       <c r="AE4">
-        <v>-253439.0761</v>
+        <v>59985.0722</v>
       </c>
       <c r="AF4">
-        <v>55593.5105</v>
+        <v>-23312.6833</v>
       </c>
       <c r="AG4">
-        <v>15112.8125</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1053,7 +1065,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1062,43 +1074,43 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>18205.06</v>
+        <v>16058</v>
       </c>
       <c r="F5">
-        <v>350421.9071</v>
+        <v>317342.6932</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H5">
-        <v>35996.8269</v>
+        <v>36993.6621</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>59030.4</v>
+        <v>83511.89999999999</v>
       </c>
       <c r="M5">
-        <v>34720.53</v>
+        <v>38308.97</v>
       </c>
       <c r="N5">
-        <v>271057.69</v>
+        <v>258025.36</v>
       </c>
       <c r="O5">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>38992.08</v>
+        <v>30826.26</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1110,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>59030.4</v>
+        <v>83812.86</v>
       </c>
       <c r="U5">
-        <v>34720.53</v>
+        <v>38308.97</v>
       </c>
       <c r="V5">
-        <v>271057.69</v>
+        <v>258025.36</v>
       </c>
       <c r="W5">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>38992.08</v>
+        <v>30826.26</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1134,39 +1146,39 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>59030.4</v>
+        <v>83812.86</v>
       </c>
       <c r="AC5">
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>-16515.47</v>
+        <v>-22250.97</v>
       </c>
       <c r="AE5">
-        <v>79364.21710000001</v>
+        <v>59317.33320000002</v>
       </c>
       <c r="AF5">
-        <v>-19401.54</v>
+        <v>26406.9175</v>
       </c>
       <c r="AG5">
-        <v>-2995.253100000002</v>
+        <v>6167.402100000003</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>-300.9600000000064</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1175,19 +1187,19 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>13645.06</v>
+        <v>19408.1</v>
       </c>
       <c r="F6">
-        <v>299354.9628</v>
+        <v>28014.8339</v>
       </c>
       <c r="G6">
-        <v>12892.7891</v>
+        <v>55593.5105</v>
       </c>
       <c r="H6">
-        <v>18459.9112</v>
+        <v>36919.8225</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1202,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19217.69</v>
+        <v>27337.44</v>
       </c>
       <c r="N6">
-        <v>258930.56</v>
+        <v>281453.91</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>21807.01</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1226,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>19217.69</v>
+        <v>27337.44</v>
       </c>
       <c r="V6">
-        <v>258930.56</v>
+        <v>281453.91</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>21807.01</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1250,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>-5572.630000000003</v>
+        <v>-7929.340000000004</v>
       </c>
       <c r="AE6">
-        <v>40424.40279999998</v>
+        <v>-253439.0761</v>
       </c>
       <c r="AF6">
-        <v>12892.7891</v>
+        <v>55593.5105</v>
       </c>
       <c r="AG6">
-        <v>18459.9112</v>
+        <v>15112.8125</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1279,7 +1291,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1288,43 +1300,43 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>22457.38</v>
+        <v>18205.06</v>
       </c>
       <c r="F7">
-        <v>294985.4912</v>
+        <v>350421.9071</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>35996.8269</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>42006.49</v>
+        <v>59030.4</v>
       </c>
       <c r="M7">
-        <v>40780.28000000001</v>
+        <v>34720.53</v>
       </c>
       <c r="N7">
-        <v>250365.09</v>
+        <v>271057.69</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1336,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>42006.49</v>
+        <v>59030.4</v>
       </c>
       <c r="U7">
-        <v>40780.28000000001</v>
+        <v>34720.53</v>
       </c>
       <c r="V7">
-        <v>250365.09</v>
+        <v>271057.69</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1360,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>42006.49</v>
+        <v>59030.4</v>
       </c>
       <c r="AC7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>-18322.90000000001</v>
+        <v>-16515.47</v>
       </c>
       <c r="AE7">
-        <v>44620.40120000005</v>
+        <v>79364.21710000001</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-19401.54</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>-2995.253100000002</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1392,7 +1404,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1401,19 +1413,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>44610.66</v>
+        <v>13645.06</v>
       </c>
       <c r="F8">
-        <v>358194.8644</v>
+        <v>299354.9628</v>
       </c>
       <c r="G8">
-        <v>49129.3974</v>
+        <v>12892.7891</v>
       </c>
       <c r="H8">
-        <v>25843.8757</v>
+        <v>18459.9112</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1422,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24406.71</v>
+        <v>19217.69</v>
       </c>
       <c r="N8">
-        <v>340968.83</v>
+        <v>258930.56</v>
       </c>
       <c r="O8">
-        <v>5162.22</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>22756.23</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1446,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>115340</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>24406.71</v>
+        <v>19217.69</v>
       </c>
       <c r="V8">
-        <v>340968.83</v>
+        <v>258930.56</v>
       </c>
       <c r="W8">
-        <v>5162.22</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>22756.23</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1470,25 +1482,25 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>115340</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>20203.95</v>
+        <v>-5572.630000000003</v>
       </c>
       <c r="AE8">
-        <v>17226.03439999995</v>
+        <v>40424.40279999998</v>
       </c>
       <c r="AF8">
-        <v>43967.1774</v>
+        <v>12892.7891</v>
       </c>
       <c r="AG8">
-        <v>3087.645700000001</v>
+        <v>18459.9112</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1497,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-46630.05740000001</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1505,7 +1517,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1514,19 +1526,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="F9">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="G9">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1538,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="M9">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="N9">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1562,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="U9">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="V9">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1586,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD9">
-        <v>-2617.970000000001</v>
+        <v>-18322.90000000001</v>
       </c>
       <c r="AE9">
-        <v>11955.57549999998</v>
+        <v>44620.40120000005</v>
       </c>
       <c r="AF9">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1618,7 +1630,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
@@ -1627,19 +1639,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10">
-        <v>21182.46</v>
+        <v>44610.66</v>
       </c>
       <c r="F10">
-        <v>516832.16</v>
+        <v>358194.8644</v>
       </c>
       <c r="G10">
-        <v>41714.5254</v>
+        <v>49129.3974</v>
       </c>
       <c r="H10">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1648,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5293.4</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L10">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="N10">
-        <v>455228.52</v>
+        <v>334593.33</v>
       </c>
       <c r="O10">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1672,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="T10">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>29506.7</v>
+        <v>24406.71</v>
       </c>
       <c r="V10">
-        <v>455228.52</v>
+        <v>334593.33</v>
       </c>
       <c r="W10">
-        <v>2181.06</v>
+        <v>5162.22</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1696,25 +1708,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>64902.09</v>
+        <v>115340</v>
       </c>
       <c r="AB10">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD10">
-        <v>-8324.240000000002</v>
+        <v>20203.95</v>
       </c>
       <c r="AE10">
-        <v>61603.64000000001</v>
+        <v>23601.53439999995</v>
       </c>
       <c r="AF10">
-        <v>39533.4654</v>
+        <v>43967.1774</v>
       </c>
       <c r="AG10">
-        <v>36735.2234</v>
+        <v>3087.645700000001</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1723,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-59608.69</v>
+        <v>-46630.05740000001</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1731,25 +1743,25 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E11">
-        <v>18397.06</v>
+        <v>35264.5</v>
       </c>
       <c r="F11">
-        <v>326646.9343</v>
+        <v>290894.2855</v>
       </c>
       <c r="G11">
-        <v>24329.9319</v>
+        <v>25630.2434</v>
       </c>
       <c r="H11">
         <v>36735.2234</v>
@@ -1764,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36863.1</v>
+        <v>41846.3631</v>
       </c>
       <c r="M11">
-        <v>36093.04</v>
+        <v>37882.47</v>
       </c>
       <c r="N11">
-        <v>324824.84</v>
+        <v>278938.71</v>
       </c>
       <c r="O11">
-        <v>7421.05</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1788,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>36863.1</v>
+        <v>41846.3631</v>
       </c>
       <c r="U11">
-        <v>36093.04</v>
+        <v>37882.47</v>
       </c>
       <c r="V11">
-        <v>324824.84</v>
+        <v>278938.71</v>
       </c>
       <c r="W11">
-        <v>7421.05</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1812,19 +1824,19 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>36863.1</v>
+        <v>41846.3631</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>-17695.98</v>
+        <v>-2617.970000000001</v>
       </c>
       <c r="AE11">
-        <v>1822.094299999939</v>
+        <v>11955.57549999998</v>
       </c>
       <c r="AF11">
-        <v>16908.8819</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG11">
         <v>36735.2234</v>
@@ -1844,28 +1856,28 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E12">
-        <v>25142.02</v>
+        <v>21182.46</v>
       </c>
       <c r="F12">
-        <v>277188.6893</v>
+        <v>516832.16</v>
       </c>
       <c r="G12">
-        <v>24698.2346</v>
+        <v>41714.5254</v>
       </c>
       <c r="H12">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1874,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L12">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="M12">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="N12">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1898,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="T12">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="U12">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="V12">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1922,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="AB12">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD12">
-        <v>-2947.179999999997</v>
+        <v>-8324.240000000002</v>
       </c>
       <c r="AE12">
-        <v>116424.7493</v>
+        <v>61603.64000000001</v>
       </c>
       <c r="AF12">
-        <v>24698.2346</v>
+        <v>39533.4654</v>
       </c>
       <c r="AG12">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>-59608.69</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -1957,7 +1969,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1966,19 +1978,19 @@
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>15006.48</v>
+        <v>18397.06</v>
       </c>
       <c r="F13">
-        <v>324866.7652</v>
+        <v>326646.9343</v>
       </c>
       <c r="G13">
-        <v>38730.0079</v>
+        <v>24329.9319</v>
       </c>
       <c r="H13">
-        <v>39190.3916</v>
+        <v>36735.2234</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1990,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>36863.1</v>
       </c>
       <c r="M13">
-        <v>50944.75</v>
+        <v>36093.04</v>
       </c>
       <c r="N13">
-        <v>288251.2</v>
+        <v>324824.84</v>
       </c>
       <c r="O13">
-        <v>9109.799999999999</v>
+        <v>7421.05</v>
       </c>
       <c r="P13">
-        <v>16977.39</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2014,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>36863.1</v>
       </c>
       <c r="U13">
-        <v>50944.75</v>
+        <v>36093.04</v>
       </c>
       <c r="V13">
-        <v>288251.2</v>
+        <v>324824.84</v>
       </c>
       <c r="W13">
-        <v>9109.799999999999</v>
+        <v>7421.05</v>
       </c>
       <c r="X13">
-        <v>16977.39</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2038,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>36863.1</v>
       </c>
       <c r="AC13">
         <v>9</v>
       </c>
       <c r="AD13">
-        <v>-35938.27</v>
+        <v>-17695.98</v>
       </c>
       <c r="AE13">
-        <v>36615.56520000001</v>
+        <v>1822.094299999939</v>
       </c>
       <c r="AF13">
-        <v>29620.2079</v>
+        <v>16908.8819</v>
       </c>
       <c r="AG13">
-        <v>22213.0016</v>
+        <v>36735.2234</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2070,7 +2082,7 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -2079,19 +2091,19 @@
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E14">
-        <v>26099.62</v>
+        <v>25142.02</v>
       </c>
       <c r="F14">
-        <v>278579.4218</v>
+        <v>277188.6893</v>
       </c>
       <c r="G14">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2103,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="M14">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="N14">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2127,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="U14">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="V14">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2151,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="AC14">
         <v>1</v>
       </c>
       <c r="AD14">
-        <v>1448.329999999998</v>
+        <v>-2947.179999999997</v>
       </c>
       <c r="AE14">
-        <v>10727.76179999998</v>
+        <v>116424.7493</v>
       </c>
       <c r="AF14">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -2192,19 +2204,19 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>27006.82</v>
+        <v>15006.48</v>
       </c>
       <c r="F15">
-        <v>264147.2883</v>
+        <v>324866.7652</v>
       </c>
       <c r="G15">
-        <v>27649.596</v>
+        <v>38730.0079</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2216,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="N15">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2240,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="V15">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2264,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD15">
-        <v>-6992.559999999998</v>
+        <v>-35938.27</v>
       </c>
       <c r="AE15">
-        <v>-14703.65169999999</v>
+        <v>36615.56520000001</v>
       </c>
       <c r="AF15">
-        <v>27649.596</v>
+        <v>29620.2079</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>22213.0016</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2296,7 +2308,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -2305,19 +2317,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16">
-        <v>26563.62</v>
+        <v>26099.62</v>
       </c>
       <c r="F16">
-        <v>283269.233</v>
+        <v>278579.4218</v>
       </c>
       <c r="G16">
-        <v>25785.5783</v>
+        <v>26251.5827</v>
       </c>
       <c r="H16">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2329,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18450</v>
+        <v>29992.31</v>
       </c>
       <c r="M16">
-        <v>32674.29</v>
+        <v>24651.29</v>
       </c>
       <c r="N16">
-        <v>290087.79</v>
+        <v>267851.66</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2353,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>18450</v>
+        <v>29992.31</v>
       </c>
       <c r="U16">
-        <v>32674.29</v>
+        <v>24651.29</v>
       </c>
       <c r="V16">
-        <v>290087.79</v>
+        <v>267851.66</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2377,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>18450</v>
+        <v>29992.31</v>
       </c>
       <c r="AC16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>-6110.670000000002</v>
+        <v>1448.329999999998</v>
       </c>
       <c r="AE16">
-        <v>-6818.55700000003</v>
+        <v>10727.76179999998</v>
       </c>
       <c r="AF16">
-        <v>25785.5783</v>
+        <v>26251.5827</v>
       </c>
       <c r="AG16">
-        <v>20222.5725</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2409,7 +2421,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2418,16 +2430,16 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E17">
-        <v>18812.78</v>
+        <v>27006.82</v>
       </c>
       <c r="F17">
-        <v>591541.1514</v>
+        <v>264147.2883</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>27649.596</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2439,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19227.3628</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="M17">
-        <v>23508.78</v>
+        <v>33999.38</v>
       </c>
       <c r="N17">
-        <v>568269.17</v>
+        <v>278850.94</v>
       </c>
       <c r="O17">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2460,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>19719.56</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="U17">
-        <v>23508.78</v>
+        <v>33999.38</v>
       </c>
       <c r="V17">
-        <v>568269.17</v>
+        <v>278850.94</v>
       </c>
       <c r="W17">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2484,25 +2496,25 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>19719.56</v>
+        <v>64312.56099999999</v>
       </c>
       <c r="AC17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>-4696</v>
+        <v>-6992.559999999998</v>
       </c>
       <c r="AE17">
-        <v>23271.98139999993</v>
+        <v>-14703.65169999999</v>
       </c>
       <c r="AF17">
-        <v>-2615.02</v>
+        <v>27649.596</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2511,18 +2523,18 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>-36493.87</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>4624.118900000001</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>-492.1972000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -2531,94 +2543,94 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E18">
-        <v>18963.92</v>
+        <v>26563.62</v>
       </c>
       <c r="F18">
-        <v>267383.277</v>
+        <v>283269.233</v>
       </c>
       <c r="G18">
-        <v>25093.7551</v>
+        <v>25785.5783</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="M18">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="N18">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="O18">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="U18">
-        <v>29758.22</v>
+        <v>32674.29</v>
       </c>
       <c r="V18">
-        <v>245114.65</v>
+        <v>290087.79</v>
       </c>
       <c r="W18">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>10800.63</v>
+        <v>16697.25</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD18">
-        <v>-10794.3</v>
+        <v>-6110.670000000002</v>
       </c>
       <c r="AE18">
-        <v>22268.62700000001</v>
+        <v>-6818.55700000003</v>
       </c>
       <c r="AF18">
-        <v>18288.2951</v>
+        <v>25785.5783</v>
       </c>
       <c r="AG18">
-        <v>-10800.63</v>
+        <v>20222.5725</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2635,7 +2647,7 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -2644,19 +2656,19 @@
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E19">
-        <v>16590.18</v>
+        <v>18812.78</v>
       </c>
       <c r="F19">
-        <v>327010.7217</v>
+        <v>591541.1514</v>
       </c>
       <c r="G19">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2665,90 +2677,90 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
       <c r="M19">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="N19">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="P19">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="U19">
-        <v>21705.25</v>
+        <v>23508.78</v>
       </c>
       <c r="V19">
-        <v>287071.98</v>
+        <v>568269.17</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="X19">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
       <c r="AC19">
         <v>3</v>
       </c>
       <c r="AD19">
-        <v>-5115.07</v>
+        <v>-4696</v>
       </c>
       <c r="AE19">
-        <v>39938.74170000001</v>
+        <v>23271.98139999993</v>
       </c>
       <c r="AF19">
-        <v>25630.2434</v>
+        <v>-2615.02</v>
       </c>
       <c r="AG19">
-        <v>208.5449999999983</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>-36493.87</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>4624.118900000001</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>-492.1972000000023</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -2757,25 +2769,25 @@
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>18460.42</v>
+        <v>18963.92</v>
       </c>
       <c r="F20">
-        <v>281664.89</v>
+        <v>267383.277</v>
       </c>
       <c r="G20">
-        <v>25785.58</v>
+        <v>25093.7551</v>
       </c>
       <c r="H20">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2784,22 +2796,22 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>28420.94</v>
+        <v>29758.22</v>
       </c>
       <c r="N20">
-        <v>239742.97</v>
+        <v>245114.65</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2808,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>28420.94</v>
+        <v>29758.22</v>
       </c>
       <c r="V20">
-        <v>239742.97</v>
+        <v>245114.65</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2832,19 +2844,19 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD20">
-        <v>-9960.520000000004</v>
+        <v>-10794.3</v>
       </c>
       <c r="AE20">
-        <v>41921.92000000004</v>
+        <v>22268.62700000001</v>
       </c>
       <c r="AF20">
-        <v>25785.58</v>
+        <v>18288.2951</v>
       </c>
       <c r="AG20">
-        <v>36978.89</v>
+        <v>-10800.63</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2861,7 +2873,7 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -2870,19 +2882,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E21">
-        <v>18541.06</v>
+        <v>16590.18</v>
       </c>
       <c r="F21">
-        <v>319530.8217</v>
+        <v>327010.7217</v>
       </c>
       <c r="G21">
-        <v>36708.3923</v>
+        <v>25630.2434</v>
       </c>
       <c r="H21">
-        <v>37289.0207</v>
+        <v>36402.945</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2891,22 +2903,22 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24335.07</v>
+        <v>21705.25</v>
       </c>
       <c r="N21">
-        <v>247385.28</v>
+        <v>287071.98</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>6678.9</v>
+        <v>36194.4</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2918,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>24335.07</v>
+        <v>21705.25</v>
       </c>
       <c r="V21">
-        <v>247385.28</v>
+        <v>287071.98</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>6678.9</v>
+        <v>36194.4</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2942,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>-5794.009999999998</v>
+        <v>-5115.07</v>
       </c>
       <c r="AE21">
-        <v>72145.54169999997</v>
+        <v>39938.74170000001</v>
       </c>
       <c r="AF21">
-        <v>36708.3923</v>
+        <v>25630.2434</v>
       </c>
       <c r="AG21">
-        <v>30610.1207</v>
+        <v>208.5449999999983</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2966,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -2974,7 +2986,7 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -2983,19 +2995,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E22">
-        <v>14932.88</v>
+        <v>18460.42</v>
       </c>
       <c r="F22">
-        <v>262147.1729</v>
+        <v>281664.89</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>25785.58</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3004,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22202.17</v>
+        <v>28420.94</v>
       </c>
       <c r="N22">
-        <v>231965.51</v>
+        <v>239742.97</v>
       </c>
       <c r="O22">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3034,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>22202.17</v>
+        <v>28420.94</v>
       </c>
       <c r="V22">
-        <v>231965.51</v>
+        <v>239742.97</v>
       </c>
       <c r="W22">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3058,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD22">
-        <v>-7269.289999999999</v>
+        <v>-9960.520000000004</v>
       </c>
       <c r="AE22">
-        <v>30181.6629</v>
+        <v>41921.92000000004</v>
       </c>
       <c r="AF22">
-        <v>-3310.93</v>
+        <v>25785.58</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3079,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -3087,7 +3099,7 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -3096,19 +3108,19 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>16058</v>
+        <v>18541.06</v>
       </c>
       <c r="F23">
-        <v>317342.6932</v>
+        <v>319530.8217</v>
       </c>
       <c r="G23">
-        <v>26406.9175</v>
+        <v>36708.3923</v>
       </c>
       <c r="H23">
-        <v>36993.6621</v>
+        <v>37289.0207</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3117,22 +3129,22 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="L23">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M23">
-        <v>31949.91</v>
+        <v>24335.07</v>
       </c>
       <c r="N23">
-        <v>264422.99</v>
+        <v>247385.28</v>
       </c>
       <c r="O23">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3144,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="U23">
-        <v>31949.91</v>
+        <v>24335.07</v>
       </c>
       <c r="V23">
-        <v>264422.99</v>
+        <v>247385.28</v>
       </c>
       <c r="W23">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3168,22 +3180,22 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="AC23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <v>-15891.91</v>
+        <v>-5794.009999999998</v>
       </c>
       <c r="AE23">
-        <v>52919.70320000005</v>
+        <v>72145.54169999997</v>
       </c>
       <c r="AF23">
-        <v>19817.1775</v>
+        <v>36708.3923</v>
       </c>
       <c r="AG23">
-        <v>36993.6621</v>
+        <v>30610.1207</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3192,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -3200,7 +3212,7 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -3209,16 +3221,16 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E24">
-        <v>15265.68</v>
+        <v>14932.88</v>
       </c>
       <c r="F24">
-        <v>311352.2643</v>
+        <v>262147.1729</v>
       </c>
       <c r="G24">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3230,19 +3242,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>34725.64</v>
+        <v>22202.17</v>
       </c>
       <c r="N24">
-        <v>314368.92</v>
+        <v>231965.51</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3260,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>34725.64</v>
+        <v>22202.17</v>
       </c>
       <c r="V24">
-        <v>314368.92</v>
+        <v>231965.51</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -3284,16 +3296,16 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>-19459.96</v>
+        <v>-7269.289999999999</v>
       </c>
       <c r="AE24">
-        <v>-3016.655699999945</v>
+        <v>30181.6629</v>
       </c>
       <c r="AF24">
-        <v>26406.9175</v>
+        <v>-3310.93</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -3305,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3313,7 +3325,7 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -3322,22 +3334,22 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>80000</v>
+        <v>16058</v>
       </c>
       <c r="F25">
-        <v>120000</v>
+        <v>317342.6932</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I25">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3346,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22674.42</v>
+        <v>14106.87</v>
       </c>
       <c r="M25">
-        <v>52083.67</v>
+        <v>31949.91</v>
       </c>
       <c r="N25">
-        <v>166132.1</v>
+        <v>264422.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3370,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="U25">
-        <v>52083.67</v>
+        <v>31949.91</v>
       </c>
       <c r="V25">
-        <v>166132.1</v>
+        <v>264422.99</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3394,25 +3406,25 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="AC25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD25">
-        <v>27916.33</v>
+        <v>-15891.91</v>
       </c>
       <c r="AE25">
-        <v>-46132.10000000001</v>
+        <v>52919.70320000005</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>19817.1775</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="AH25">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3421,12 +3433,12 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -3435,16 +3447,16 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26">
-        <v>14668.56</v>
+        <v>15265.68</v>
       </c>
       <c r="F26">
-        <v>301721.9088</v>
+        <v>311352.2643</v>
       </c>
       <c r="G26">
-        <v>24232.2302</v>
+        <v>26406.9175</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3462,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="N26">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="O26">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3486,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>27181.54</v>
+        <v>34725.64</v>
       </c>
       <c r="V26">
-        <v>270393.7</v>
+        <v>314368.92</v>
       </c>
       <c r="W26">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3510,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>-12512.98</v>
+        <v>-19459.96</v>
       </c>
       <c r="AE26">
-        <v>31328.20880000002</v>
+        <v>-3016.655699999945</v>
       </c>
       <c r="AF26">
-        <v>2142.890200000002</v>
+        <v>26406.9175</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3539,7 +3551,7 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -3548,10 +3560,10 @@
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="F27">
         <v>120000</v>
@@ -3563,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3575,10 +3587,10 @@
         <v>22674.42</v>
       </c>
       <c r="M27">
-        <v>81189.56</v>
+        <v>52083.67</v>
       </c>
       <c r="N27">
-        <v>75026.78</v>
+        <v>166132.1</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3596,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>21490.444</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>81189.56</v>
+        <v>52083.67</v>
       </c>
       <c r="V27">
-        <v>75026.78</v>
+        <v>166132.1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3620,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>21490.444</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD27">
-        <v>-51189.56</v>
+        <v>27916.33</v>
       </c>
       <c r="AE27">
-        <v>44973.22</v>
+        <v>-46132.10000000001</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3638,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3647,12 +3659,12 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1183.975999999999</v>
+        <v>22674.42</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
@@ -3661,43 +3673,43 @@
         <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>14668.56</v>
       </c>
       <c r="F28">
-        <v>433983.8522</v>
+        <v>301721.9088</v>
       </c>
       <c r="G28">
-        <v>66756.6691</v>
+        <v>24232.2302</v>
       </c>
       <c r="H28">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>33875.99</v>
+        <v>27181.54</v>
       </c>
       <c r="N28">
-        <v>388449.69</v>
+        <v>270393.7</v>
       </c>
       <c r="O28">
-        <v>41728.31</v>
+        <v>22089.34</v>
       </c>
       <c r="P28">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3712,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>33875.99</v>
+        <v>27181.54</v>
       </c>
       <c r="V28">
-        <v>388449.69</v>
+        <v>270393.7</v>
       </c>
       <c r="W28">
-        <v>41728.31</v>
+        <v>22089.34</v>
       </c>
       <c r="X28">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3736,28 +3748,28 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD28">
-        <v>-33875.99</v>
+        <v>-12512.98</v>
       </c>
       <c r="AE28">
-        <v>45534.16220000002</v>
+        <v>31328.20880000002</v>
       </c>
       <c r="AF28">
-        <v>25028.3591</v>
+        <v>2142.890200000002</v>
       </c>
       <c r="AG28">
-        <v>3237.630399999995</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -3765,7 +3777,7 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
@@ -3774,22 +3786,22 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>19881.64</v>
+        <v>30000</v>
       </c>
       <c r="F29">
-        <v>544086.7781999999</v>
+        <v>120000</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3798,19 +3810,19 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="M29">
-        <v>24492.98</v>
+        <v>81189.56</v>
       </c>
       <c r="N29">
-        <v>532274.26</v>
+        <v>75026.78</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3822,19 +3834,19 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>21490.444</v>
       </c>
       <c r="U29">
-        <v>24492.98</v>
+        <v>81189.56</v>
       </c>
       <c r="V29">
-        <v>532274.26</v>
+        <v>75026.78</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3846,25 +3858,25 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>21490.444</v>
       </c>
       <c r="AC29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD29">
-        <v>-4611.340000000004</v>
+        <v>-51189.56</v>
       </c>
       <c r="AE29">
-        <v>11812.51819999993</v>
+        <v>44973.22</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>20665.8249</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -3873,12 +3885,12 @@
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1183.975999999999</v>
       </c>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -3887,46 +3899,46 @@
         <v>2025</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E30">
-        <v>29792.44</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>592371.3167</v>
+        <v>433983.8522</v>
       </c>
       <c r="G30">
-        <v>25940.9131</v>
+        <v>66756.6691</v>
       </c>
       <c r="H30">
-        <v>37196.7212</v>
+        <v>37362.8604</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L30">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>35571.27</v>
+        <v>33875.99</v>
       </c>
       <c r="N30">
-        <v>48616.23</v>
+        <v>388449.69</v>
       </c>
       <c r="O30">
-        <v>37765.32</v>
+        <v>41728.31</v>
       </c>
       <c r="P30">
-        <v>37083.02</v>
+        <v>34125.23</v>
       </c>
       <c r="Q30">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3935,22 +3947,22 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>35571.27</v>
+        <v>33875.99</v>
       </c>
       <c r="V30">
-        <v>48616.23</v>
+        <v>388449.69</v>
       </c>
       <c r="W30">
-        <v>37765.32</v>
+        <v>41728.31</v>
       </c>
       <c r="X30">
-        <v>37083.02</v>
+        <v>34125.23</v>
       </c>
       <c r="Y30">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3959,39 +3971,39 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD30">
-        <v>-5778.829999999998</v>
+        <v>-33875.99</v>
       </c>
       <c r="AE30">
-        <v>543755.0867</v>
+        <v>45534.16220000002</v>
       </c>
       <c r="AF30">
-        <v>-11824.4069</v>
+        <v>25028.3591</v>
       </c>
       <c r="AG30">
-        <v>113.7012000000032</v>
+        <v>3237.630399999995</v>
       </c>
       <c r="AH30">
-        <v>-26413.08</v>
+        <v>10000</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="AK30">
-        <v>5.820766091346741E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -4003,16 +4015,16 @@
         <v>72</v>
       </c>
       <c r="E31">
-        <v>25326.82</v>
+        <v>19881.64</v>
       </c>
       <c r="F31">
-        <v>276375.5386</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G31">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>34335.4349</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4024,19 +4036,19 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>27944</v>
+        <v>24492.98</v>
       </c>
       <c r="N31">
-        <v>230888.76</v>
+        <v>532274.26</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>13669.61</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4048,19 +4060,19 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>27944</v>
+        <v>24492.98</v>
       </c>
       <c r="V31">
-        <v>230888.76</v>
+        <v>532274.26</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>13669.61</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -4072,22 +4084,22 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD31">
-        <v>-2617.18</v>
+        <v>-4611.340000000004</v>
       </c>
       <c r="AE31">
-        <v>45486.77860000002</v>
+        <v>11812.51819999993</v>
       </c>
       <c r="AF31">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>20665.8249</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4104,7 +4116,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -4113,19 +4125,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E32">
-        <v>18541.06</v>
+        <v>29792.44</v>
       </c>
       <c r="F32">
-        <v>252067.7995</v>
+        <v>592371.3167</v>
       </c>
       <c r="G32">
-        <v>26979.2036</v>
+        <v>25940.9131</v>
       </c>
       <c r="H32">
-        <v>36919.8225</v>
+        <v>37196.7212</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4134,85 +4146,85 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
       <c r="M32">
-        <v>28895.31</v>
+        <v>35571.27</v>
       </c>
       <c r="N32">
-        <v>251643.6000000001</v>
+        <v>48616.23</v>
       </c>
       <c r="O32">
-        <v>3379</v>
+        <v>37765.32</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
       <c r="U32">
-        <v>28895.31</v>
+        <v>35571.27</v>
       </c>
       <c r="V32">
-        <v>251643.6000000001</v>
+        <v>48616.23</v>
       </c>
       <c r="W32">
-        <v>3379</v>
+        <v>37765.32</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
       <c r="AC32">
         <v>7</v>
       </c>
       <c r="AD32">
-        <v>-10354.25</v>
+        <v>-5778.829999999998</v>
       </c>
       <c r="AE32">
-        <v>424.1994999999588</v>
+        <v>543755.0867</v>
       </c>
       <c r="AF32">
-        <v>23600.2036</v>
+        <v>-11824.4069</v>
       </c>
       <c r="AG32">
-        <v>36919.8225</v>
+        <v>113.7012000000032</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>-26413.08</v>
       </c>
       <c r="AI32">
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>-2429.89</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>5.820766091346741E-11</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4226,19 +4238,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33">
-        <v>21854.46</v>
+        <v>23898.82</v>
       </c>
       <c r="F33">
-        <v>624821.7819000001</v>
+        <v>409625.5938</v>
       </c>
       <c r="G33">
-        <v>12116.1151</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>40316.4462</v>
+        <v>32674.0429</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4247,22 +4259,22 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
       <c r="M33">
-        <v>33879.14</v>
+        <v>26512.21</v>
       </c>
       <c r="N33">
-        <v>325344.86</v>
+        <v>337917.65</v>
       </c>
       <c r="O33">
-        <v>91485.00999999999</v>
+        <v>60888.94</v>
       </c>
       <c r="P33">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4271,22 +4283,22 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
       <c r="U33">
-        <v>33879.14</v>
+        <v>26512.21</v>
       </c>
       <c r="V33">
-        <v>325344.86</v>
+        <v>337917.65</v>
       </c>
       <c r="W33">
-        <v>91485.00999999999</v>
+        <v>60888.94</v>
       </c>
       <c r="X33">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -4295,25 +4307,25 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
       <c r="AC33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD33">
-        <v>-12024.68</v>
+        <v>-2613.389999999999</v>
       </c>
       <c r="AE33">
-        <v>299476.9219000001</v>
+        <v>71707.94380000007</v>
       </c>
       <c r="AF33">
-        <v>-79368.8949</v>
+        <v>-60888.94</v>
       </c>
       <c r="AG33">
-        <v>958.7561999999962</v>
+        <v>32674.0429</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4322,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>-44078.4219</v>
+        <v>0</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -4339,105 +4351,444 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>25326.82</v>
+      </c>
+      <c r="F34">
+        <v>276375.5386</v>
+      </c>
+      <c r="G34">
+        <v>25008.9042</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>23876.1125</v>
+      </c>
+      <c r="M34">
+        <v>27944</v>
+      </c>
+      <c r="N34">
+        <v>230888.76</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>23876.1125</v>
+      </c>
+      <c r="U34">
+        <v>27944</v>
+      </c>
+      <c r="V34">
+        <v>230888.76</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>23876.1125</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>-2617.18</v>
+      </c>
+      <c r="AE34">
+        <v>45486.77860000002</v>
+      </c>
+      <c r="AF34">
+        <v>25008.9042</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>18541.06</v>
+      </c>
+      <c r="F35">
+        <v>252067.7995</v>
+      </c>
+      <c r="G35">
+        <v>26979.2036</v>
+      </c>
+      <c r="H35">
+        <v>36919.8225</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>5600</v>
+      </c>
+      <c r="L35">
+        <v>52444.52</v>
+      </c>
+      <c r="M35">
+        <v>28895.31</v>
+      </c>
+      <c r="N35">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O35">
+        <v>3379</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>8029.89</v>
+      </c>
+      <c r="T35">
+        <v>52444.52</v>
+      </c>
+      <c r="U35">
+        <v>28895.31</v>
+      </c>
+      <c r="V35">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="W35">
+        <v>3379</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>8029.89</v>
+      </c>
+      <c r="AB35">
+        <v>52444.52</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>-10354.25</v>
+      </c>
+      <c r="AE35">
+        <v>424.1994999999588</v>
+      </c>
+      <c r="AF35">
+        <v>23600.2036</v>
+      </c>
+      <c r="AG35">
+        <v>36919.8225</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>-2429.89</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>21854.46</v>
+      </c>
+      <c r="F36">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G36">
+        <v>12116.1151</v>
+      </c>
+      <c r="H36">
+        <v>40316.4462</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>19487.5781</v>
+      </c>
+      <c r="L36">
+        <v>229812.833425</v>
+      </c>
+      <c r="M36">
+        <v>33879.14</v>
+      </c>
+      <c r="N36">
+        <v>325344.86</v>
+      </c>
+      <c r="O36">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P36">
+        <v>39357.69</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>63566</v>
+      </c>
+      <c r="T36">
+        <v>229812.833425</v>
+      </c>
+      <c r="U36">
+        <v>33879.14</v>
+      </c>
+      <c r="V36">
+        <v>325344.86</v>
+      </c>
+      <c r="W36">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="X36">
+        <v>39357.69</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>63566</v>
+      </c>
+      <c r="AB36">
+        <v>229812.833425</v>
+      </c>
+      <c r="AC36">
+        <v>6</v>
+      </c>
+      <c r="AD36">
+        <v>-12024.68</v>
+      </c>
+      <c r="AE36">
+        <v>299476.9219000001</v>
+      </c>
+      <c r="AF36">
+        <v>-79368.8949</v>
+      </c>
+      <c r="AG36">
+        <v>958.7561999999962</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>-44078.4219</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="E34">
+      <c r="C37">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37">
         <v>27683.86</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>418982.5319</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>51527.9349</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>40992.0789</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>181185.5419</v>
       </c>
-      <c r="L34">
+      <c r="L37">
         <v>60577.37</v>
       </c>
-      <c r="M34">
-        <v>30868.28</v>
-      </c>
-      <c r="N34">
+      <c r="M37">
+        <v>136868.28</v>
+      </c>
+      <c r="N37">
         <v>363209.57</v>
       </c>
-      <c r="O34">
+      <c r="O37">
         <v>65966.92</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>95933.12</v>
       </c>
-      <c r="T34">
+      <c r="T37">
         <v>60577.37</v>
       </c>
-      <c r="U34">
-        <v>30868.28</v>
-      </c>
-      <c r="V34">
+      <c r="U37">
+        <v>136868.28</v>
+      </c>
+      <c r="V37">
         <v>363209.57</v>
       </c>
-      <c r="W34">
+      <c r="W37">
         <v>65966.92</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
         <v>95933.12</v>
       </c>
-      <c r="AB34">
+      <c r="AB37">
         <v>60577.37</v>
       </c>
-      <c r="AC34">
+      <c r="AC37">
         <v>7</v>
       </c>
-      <c r="AD34">
-        <v>-3184.419999999998</v>
-      </c>
-      <c r="AE34">
+      <c r="AD37">
+        <v>-109184.42</v>
+      </c>
+      <c r="AE37">
         <v>55772.96189999999</v>
       </c>
-      <c r="AF34">
+      <c r="AF37">
         <v>-14438.9851</v>
       </c>
-      <c r="AG34">
+      <c r="AG37">
         <v>40992.0789</v>
       </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>85252.42190000002</v>
       </c>
-      <c r="AK34">
+      <c r="AK37">
         <v>7.275957614183426E-12</v>
       </c>
     </row>
